--- a/practice_data.xlsx
+++ b/practice_data.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Personal data\Code and Research\visualization and storytelling from data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28D94E0A-1CD2-439D-97B0-CD78B9F98746}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A78878-9160-41B2-98A9-52B1C0D5D732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C33E300-94BD-3244-BE01-92DFA5BF64CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3C33E300-94BD-3244-BE01-92DFA5BF64CB}"/>
   </bookViews>
   <sheets>
-    <sheet name="DATA" sheetId="1" r:id="rId1"/>
+    <sheet name="Chart_1" sheetId="1" r:id="rId1"/>
+    <sheet name="chart_2" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>Completion Rate</t>
   </si>
@@ -115,6 +116,75 @@
   <si>
     <t>Quarter</t>
   </si>
+  <si>
+    <t>ORIGINAL VISUAL</t>
+  </si>
+  <si>
+    <t>&lt;=24</t>
+  </si>
+  <si>
+    <t>24 and 36</t>
+  </si>
+  <si>
+    <t>36 and 48</t>
+  </si>
+  <si>
+    <t>48 and 59</t>
+  </si>
+  <si>
+    <t>&gt;=60</t>
+  </si>
+  <si>
+    <t>Unknown</t>
+  </si>
+  <si>
+    <t>2019/Q1</t>
+  </si>
+  <si>
+    <t>2019/Q2</t>
+  </si>
+  <si>
+    <t>2019/Q3</t>
+  </si>
+  <si>
+    <t>2019/Q4</t>
+  </si>
+  <si>
+    <t>how would you improve this graph?</t>
+  </si>
+  <si>
+    <t>Length_of_stay</t>
+  </si>
+  <si>
+    <t>24 and  below</t>
+  </si>
+  <si>
+    <t>60 and above</t>
+  </si>
+  <si>
+    <t>25 to 36</t>
+  </si>
+  <si>
+    <t>37 to 48</t>
+  </si>
+  <si>
+    <t>49 to 59</t>
+  </si>
+  <si>
+    <t>quarter</t>
+  </si>
+  <si>
+    <t>1. A change in title to one easy to understand for all audiences (for example make it clear that the length of stay is in days)</t>
+  </si>
+  <si>
+    <t>2. I would use one visualization that captures the message I want to put across , instead of a chart and table which look a bit clustered and too busy.</t>
+  </si>
+  <si>
+    <t>3. Clearer category labels that do not overlap to avoid confusion about where overlapping categories are placed.</t>
+  </si>
+  <si>
+    <t>Transformed Visual</t>
+  </si>
 </sst>
 </file>
 
@@ -123,7 +193,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -150,8 +220,32 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color indexed="9"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF4F81BD"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -176,8 +270,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4F81BD"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC04F4D"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9BBB59"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF8064A2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4BACC6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF79646"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -203,11 +333,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -225,16 +384,57 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="3" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{B28C4616-D082-47AE-8FAD-92E8AFADFBC7}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF956FCC"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -281,7 +481,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>DATA!$C$5</c:f>
+              <c:f>Chart_1!$C$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -381,7 +581,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>DATA!$B$6:$B$14</c:f>
+              <c:f>Chart_1!$B$6:$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -416,7 +616,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DATA!$C$6:$C$14</c:f>
+              <c:f>Chart_1!$C$6:$C$14</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -478,7 +678,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>DATA!$D$5</c:f>
+              <c:f>Chart_1!$D$5</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -579,7 +779,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>DATA!$B$6:$B$14</c:f>
+              <c:f>Chart_1!$B$6:$B$14</c:f>
               <c:strCache>
                 <c:ptCount val="9"/>
                 <c:pt idx="0">
@@ -614,7 +814,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DATA!$D$6:$D$14</c:f>
+              <c:f>Chart_1!$D$6:$D$14</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1157,7 +1357,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>DATA!$D$33</c:f>
+              <c:f>Chart_1!$D$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1297,7 +1497,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>DATA!$A$34:$B$42</c:f>
+              <c:f>Chart_1!$A$34:$B$42</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="9"/>
                 <c:lvl>
@@ -1345,7 +1545,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DATA!$D$34:$D$42</c:f>
+              <c:f>Chart_1!$D$34:$D$42</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1407,7 +1607,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>DATA!$C$33</c:f>
+              <c:f>Chart_1!$C$33</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1547,7 +1747,7 @@
           </c:dLbls>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>DATA!$A$34:$B$42</c:f>
+              <c:f>Chart_1!$A$34:$B$42</c:f>
               <c:multiLvlStrCache>
                 <c:ptCount val="9"/>
                 <c:lvl>
@@ -1595,7 +1795,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>DATA!$C$34:$C$42</c:f>
+              <c:f>Chart_1!$C$34:$C$42</c:f>
               <c:numCache>
                 <c:formatCode>0.0%</c:formatCode>
                 <c:ptCount val="9"/>
@@ -1794,6 +1994,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="696788680"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1824,6 +2025,3693 @@
     </a:solidFill>
     <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
       <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Surgeries:</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1600" b="1" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> length of hospital stay</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1600" b="1">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+              <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="percentStacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_2!$C$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&lt;=24</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4F81BD"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_2!$B$20:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2019/Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019/Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019/Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019/Q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_2!$C$20:$C$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.12243682310469313</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14290502793296092</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.19456359102244389</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.25395613322502031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5915-4EBD-B711-2A5EA71800C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_2!$D$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24 and 36</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="C04F4D"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_2!$B$20:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2019/Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019/Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019/Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019/Q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_2!$D$20:$D$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.53850180505415157</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.58331471135940405</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.52207813798836245</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50253452477660443</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5915-4EBD-B711-2A5EA71800C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_2!$E$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>36 and 48</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="9BBB59"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_2!$B$20:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2019/Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019/Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019/Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019/Q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_2!$E$20:$E$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.3104693140794213E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0744878957169446E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8237738985868649E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.6961819658813974E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5915-4EBD-B711-2A5EA71800C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_2!$F$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>48 and 59</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="8064A2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_2!$B$20:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2019/Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019/Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019/Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019/Q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_2!$F$20:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.18855595667870043</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16737430167597764</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.17412302576891112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.14353371242891955</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5915-4EBD-B711-2A5EA71800C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_2!$G$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>&gt;=60</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="4BACC6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_2!$B$20:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2019/Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019/Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019/Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019/Q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_2!$G$20:$G$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>6.9422382671480182E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.8901303538175055E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.0216126350789679E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6206336311941517E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-5915-4EBD-B711-2A5EA71800C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="5"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_2!$H$19</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unknown</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="F79646"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_2!$B$20:$B$23</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2019/Q1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2019/Q2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019/Q3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2019/Q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_2!$H$20:$H$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1.7978339350180506E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.7597765363128521E-3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.078137988362428E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.6807473598700239E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-5915-4EBD-B711-2A5EA71800C4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="195175135"/>
+        <c:axId val="164650895"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="195175135"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                    <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1200" b="1">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1"/>
+                    </a:solidFill>
+                  </a:rPr>
+                  <a:t>Quarter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1200" b="1" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1"/>
+                  </a:solidFill>
+                  <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="164650895"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="164650895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="tx1"/>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1"/>
+                </a:solidFill>
+                <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="195175135"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:solidFill>
+          <a:schemeClr val="bg1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1">
+        <a:lumMod val="75000"/>
+      </a:schemeClr>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr>
+          <a:latin typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+          <a:cs typeface="Arial" panose="020B0604020202020204" pitchFamily="34" charset="0"/>
+        </a:defRPr>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Patient length of hospital stay after</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> surgery (in Days) - 2019 </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2214644631698185E-2"/>
+          <c:y val="1.5605595404664148E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.6509898750958366E-2"/>
+          <c:y val="9.6468588926498872E-2"/>
+          <c:w val="0.8292892058693121"/>
+          <c:h val="0.87492115283161687"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_2!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60 and above</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E5570533-9ADD-4F8F-B2D4-7851A8FCB7FC}" type="VALUE">
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{557CD262-A1EE-4ABE-8078-F69CD04D8307}" type="VALUE">
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EAF8FA5C-A379-4A73-AF3B-D7BC0F96F45A}" type="VALUE">
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_2!$C$27:$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_2!$C$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.6206336311941517E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0216126350789679E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8901303538175055E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9422382671480182E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_2!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>49 to 59</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="956FCC">
+                    <a:tint val="66000"/>
+                    <a:satMod val="160000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:srgbClr val="956FCC">
+                    <a:tint val="44500"/>
+                    <a:satMod val="160000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="956FCC">
+                    <a:tint val="23500"/>
+                    <a:satMod val="160000"/>
+                  </a:srgbClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="2700000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{765238FF-B9BD-4DC1-87ED-937DBEE9569C}" type="VALUE">
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7C6FF4B3-F0F9-4933-B232-BCE4BB6922D0}" type="VALUE">
+                      <a:rPr lang="en-US" b="1"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{451499CE-07AA-4AAD-843C-92A23181DF1C}" type="VALUE">
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_2!$C$27:$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_2!$C$29:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.14353371242891955</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17412302576891112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16737430167597764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18855595667870043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_2!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>37 to 48</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{23CB8609-759D-4D60-9305-1A4992804917}" type="VALUE">
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{89165C84-2FC6-41B2-A861-3A878452EC4E}" type="VALUE">
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{72971CE0-0048-408C-B9EC-8373B1846383}" type="VALUE">
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_2!$C$27:$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_2!$C$30:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.6961819658813974E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8237738985868649E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0744878957169446E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3104693140794213E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_2!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25 to 36</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="956FCC"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B0123420-0550-4AD1-9E4E-D2DB7B00F09A}" type="VALUE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1E725AF6-1BEF-40CE-9F3C-9C88863161F2}" type="VALUE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{86E439C3-BD25-4EFA-AB67-3EF4D5E59059}" type="VALUE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EE58C46A-35E3-43E1-BDFC-CEC483BEADDC}" type="VALUE">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_2!$C$27:$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_2!$C$31:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.50253452477660443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52207813798836245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58331471135940405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53850180505415157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_2!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24 and  below</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1FE080EE-DB5C-4065-A7FB-DA26BB88F37B}" type="VALUE">
+                      <a:rPr lang="en-US" b="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{390740E9-A8CA-41B9-8918-1469693BDDA8}" type="VALUE">
+                      <a:rPr lang="en-US" b="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B0DC2EFC-FB12-42FB-8AFB-130E38708704}" type="VALUE">
+                      <a:rPr lang="en-US" b="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_2!$C$27:$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_2!$C$32:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25395613322502031</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19456359102244389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14290502793296092</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12243682310469313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="664574376"/>
+        <c:axId val="664571096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="664574376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="664571096"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="664571096"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="664574376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1500" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Patient length of hospital stay after surgery (in Days) - 2019 </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1500" b="0">
+              <a:effectLst/>
+            </a:endParaRPr>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.1320249120483997E-2"/>
+          <c:y val="2.821054305739646E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11557076618729778"/>
+          <c:y val="0.12155923003432137"/>
+          <c:w val="0.84708408849477868"/>
+          <c:h val="0.76539157233349842"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_2!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000017-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="66000"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="44500"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="23500"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="2700000" scaled="1"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000B-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0F54B65D-555C-4BED-829C-CBB4EAD7893C}" type="VALUE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-7982-4E3E-906F-493D826FB08D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_2!$C$35:$G$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>60 and above</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49 to 59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37 to 48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25 to 36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24 and  below</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_2!$C$36:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.6206336311941517E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14353371242891955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6961819658813974E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50253452477660443</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25395613322502031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7982-4E3E-906F-493D826FB08D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_2!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="66000"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="44500"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="23500"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="2700000" scaled="1"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000A-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{794F4671-073E-41C5-93C0-D4C768BB259A}" type="VALUE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-7982-4E3E-906F-493D826FB08D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_2!$C$35:$G$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>60 and above</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49 to 59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37 to 48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25 to 36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24 and  below</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_2!$C$37:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.0216126350789679E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17412302576891112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8237738985868649E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52207813798836245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19456359102244389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7982-4E3E-906F-493D826FB08D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_2!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="66000"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="44500"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="23500"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="2700000" scaled="1"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BC914661-A5FC-4AC9-8832-C7B0EC521D3F}" type="VALUE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-7982-4E3E-906F-493D826FB08D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_2!$C$35:$G$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>60 and above</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49 to 59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37 to 48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25 to 36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24 and  below</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_2!$C$38:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.8901303538175055E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.16737430167597764</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0744878957169446E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.58331471135940405</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14290502793296092</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-7982-4E3E-906F-493D826FB08D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_2!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="66000"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="44500"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="23500"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="2700000" scaled="1"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DCA2CCBB-94F4-4628-B277-87D562768760}" type="VALUE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-7982-4E3E-906F-493D826FB08D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_2!$C$35:$G$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>60 and above</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49 to 59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37 to 48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25 to 36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24 and  below</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_2!$C$39:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.9422382671480182E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18855595667870043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3104693140794213E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53850180505415157</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12243682310469313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7982-4E3E-906F-493D826FB08D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="102"/>
+        <c:axId val="680653896"/>
+        <c:axId val="680656848"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="680653896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="680656848"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="680656848"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="680653896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
       <a:round/>
     </a:ln>
     <a:effectLst/>
@@ -1927,6 +5815,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2914,6 +6922,1521 @@
             <a:lumOff val="85000"/>
           </a:schemeClr>
         </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -3237,6 +8760,575 @@
             </a:rPr>
             <a:t> </a:t>
           </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B20CAF84-759A-4F92-B928-D8A15D7321D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>320385</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>70137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>848591</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E68EA73-7D0E-5746-853A-4A64BD2CCF16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>545523</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>52818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>355023</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB01530-5950-2785-00EE-A774D17CA840}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>822614</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>129886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>646511</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>75414</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC97487-74F6-1D6C-15E4-71CEF35364B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16538864" y="10278341"/>
+          <a:ext cx="6248942" cy="4517528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.6812</cdr:x>
+      <cdr:y>0.10622</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.8269</cdr:x>
+      <cdr:y>0.32435</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76491188-9228-7A7A-116E-0C60B312EE20}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4736523" y="518682"/>
+          <a:ext cx="1013113" cy="1065068"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>24 and below</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>25 to 36</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>37 to 48</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="0">
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>49 to 59</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>60 and above</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.46185</cdr:x>
+      <cdr:y>0.11707</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.53554</cdr:x>
+      <cdr:y>0.27486</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{46DD1850-706C-0937-DEE8-4059CB3E93A7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3263323" y="527051"/>
+          <a:ext cx="520699" cy="710336"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Q1</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Q2</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Q3</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1000" b="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Q4</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0</cdr:x>
+      <cdr:y>0.93076</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.62149</cdr:x>
+      <cdr:y>0.98077</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="9" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6E191734-7673-5A01-9A89-94D640DD1EEB}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="0" y="4190137"/>
+          <a:ext cx="4391314" cy="225135"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>The length of hospital stay</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> for an</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> average of 1.3%</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="900" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> of patients is unknown each quarter </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1200" b="1">
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -3546,8 +9638,8 @@
   </sheetPr>
   <dimension ref="A1:Q45"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
@@ -3611,17 +9703,17 @@
       <c r="D6" s="6">
         <v>2.3E-2</v>
       </c>
-      <c r="F6" s="11" t="s">
+      <c r="F6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-      <c r="N6" s="11"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="28"/>
+      <c r="J6" s="28"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="28"/>
+      <c r="N6" s="28"/>
       <c r="Q6" s="1" t="s">
         <v>16</v>
       </c>
@@ -4067,11 +10159,11 @@
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="C45" s="12">
+      <c r="C45" s="11">
         <f>AVERAGE(C34:C42)</f>
         <v>2.7333333333333334E-2</v>
       </c>
-      <c r="D45" s="12">
+      <c r="D45" s="11">
         <f>AVERAGE(D34:D42)</f>
         <v>0.88555555555555565</v>
       </c>
@@ -4083,4 +10175,462 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4826435D-A3F9-49E4-8457-82E47D20EC0E}">
+  <dimension ref="A1:J44"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="5.75" style="12" customWidth="1"/>
+    <col min="2" max="2" width="18.25" style="12" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.5" style="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="16384" width="12" style="12"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" s="13" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B3" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="14"/>
+      <c r="D3" s="14"/>
+      <c r="E3" s="14"/>
+      <c r="F3" s="14"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J5" s="12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="J6" s="12" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I7" s="25"/>
+      <c r="J7" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="E19" s="20" t="s">
+        <v>29</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="22" t="s">
+        <v>31</v>
+      </c>
+      <c r="H19" s="23" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B20" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="24">
+        <v>0.12243682310469313</v>
+      </c>
+      <c r="D20" s="24">
+        <v>0.53850180505415157</v>
+      </c>
+      <c r="E20" s="24">
+        <v>6.3104693140794213E-2</v>
+      </c>
+      <c r="F20" s="24">
+        <v>0.18855595667870043</v>
+      </c>
+      <c r="G20" s="24">
+        <v>6.9422382671480182E-2</v>
+      </c>
+      <c r="H20" s="24">
+        <v>1.7978339350180506E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B21" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="24">
+        <v>0.14290502793296092</v>
+      </c>
+      <c r="D21" s="24">
+        <v>0.58331471135940405</v>
+      </c>
+      <c r="E21" s="24">
+        <v>4.0744878957169446E-2</v>
+      </c>
+      <c r="F21" s="24">
+        <v>0.16737430167597764</v>
+      </c>
+      <c r="G21" s="24">
+        <v>5.8901303538175055E-2</v>
+      </c>
+      <c r="H21" s="24">
+        <v>6.7597765363128521E-3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B22" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="C22" s="24">
+        <v>0.19456359102244389</v>
+      </c>
+      <c r="D22" s="24">
+        <v>0.52207813798836245</v>
+      </c>
+      <c r="E22" s="24">
+        <v>2.8237738985868649E-2</v>
+      </c>
+      <c r="F22" s="24">
+        <v>0.17412302576891112</v>
+      </c>
+      <c r="G22" s="24">
+        <v>7.0216126350789679E-2</v>
+      </c>
+      <c r="H22" s="24">
+        <v>1.078137988362428E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B23" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" s="24">
+        <v>0.25395613322502031</v>
+      </c>
+      <c r="D23" s="24">
+        <v>0.50253452477660443</v>
+      </c>
+      <c r="E23" s="24">
+        <v>2.6961819658813974E-2</v>
+      </c>
+      <c r="F23" s="24">
+        <v>0.14353371242891955</v>
+      </c>
+      <c r="G23" s="24">
+        <v>5.6206336311941517E-2</v>
+      </c>
+      <c r="H23" s="24">
+        <v>1.6807473598700239E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B24" s="15"/>
+      <c r="C24" s="26">
+        <f>AVERAGE(C20:C23)</f>
+        <v>0.17846539382127957</v>
+      </c>
+      <c r="D24" s="26">
+        <f t="shared" ref="D24:H24" si="0">AVERAGE(D20:D23)</f>
+        <v>0.53660729479463054</v>
+      </c>
+      <c r="E24" s="26">
+        <f t="shared" si="0"/>
+        <v>3.9762282685661572E-2</v>
+      </c>
+      <c r="F24" s="26">
+        <f t="shared" si="0"/>
+        <v>0.16839674913812719</v>
+      </c>
+      <c r="G24" s="26">
+        <f t="shared" si="0"/>
+        <v>6.3686537218096598E-2</v>
+      </c>
+      <c r="H24" s="26">
+        <f t="shared" si="0"/>
+        <v>1.3081742342204468E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B26" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D27" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="F27" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="27">
+        <v>5.6206336311941517E-2</v>
+      </c>
+      <c r="D28" s="27">
+        <v>7.0216126350789679E-2</v>
+      </c>
+      <c r="E28" s="27">
+        <v>5.8901303538175055E-2</v>
+      </c>
+      <c r="F28" s="27">
+        <v>6.9422382671480182E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29" s="27">
+        <v>0.14353371242891955</v>
+      </c>
+      <c r="D29" s="27">
+        <v>0.17412302576891112</v>
+      </c>
+      <c r="E29" s="27">
+        <v>0.16737430167597764</v>
+      </c>
+      <c r="F29" s="27">
+        <v>0.18855595667870043</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="27">
+        <v>2.6961819658813974E-2</v>
+      </c>
+      <c r="D30" s="27">
+        <v>2.8237738985868649E-2</v>
+      </c>
+      <c r="E30" s="27">
+        <v>4.0744878957169446E-2</v>
+      </c>
+      <c r="F30" s="27">
+        <v>6.3104693140794213E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B31" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="C31" s="27">
+        <v>0.50253452477660443</v>
+      </c>
+      <c r="D31" s="27">
+        <v>0.52207813798836245</v>
+      </c>
+      <c r="E31" s="27">
+        <v>0.58331471135940405</v>
+      </c>
+      <c r="F31" s="27">
+        <v>0.53850180505415157</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
+      <c r="B32" s="12" t="s">
+        <v>39</v>
+      </c>
+      <c r="C32" s="27">
+        <v>0.25395613322502031</v>
+      </c>
+      <c r="D32" s="27">
+        <v>0.19456359102244389</v>
+      </c>
+      <c r="E32" s="27">
+        <v>0.14290502793296092</v>
+      </c>
+      <c r="F32" s="27">
+        <v>0.12243682310469313</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B35" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="F35" s="12" t="s">
+        <v>41</v>
+      </c>
+      <c r="G35" s="12" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B36" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="27">
+        <f>C28</f>
+        <v>5.6206336311941517E-2</v>
+      </c>
+      <c r="D36" s="27">
+        <f>C29</f>
+        <v>0.14353371242891955</v>
+      </c>
+      <c r="E36" s="27">
+        <f>C30</f>
+        <v>2.6961819658813974E-2</v>
+      </c>
+      <c r="F36" s="27">
+        <f>C31</f>
+        <v>0.50253452477660443</v>
+      </c>
+      <c r="G36" s="27">
+        <f>C32</f>
+        <v>0.25395613322502031</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B37" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C37" s="27">
+        <f>D28</f>
+        <v>7.0216126350789679E-2</v>
+      </c>
+      <c r="D37" s="27">
+        <f>D29</f>
+        <v>0.17412302576891112</v>
+      </c>
+      <c r="E37" s="27">
+        <f>D30</f>
+        <v>2.8237738985868649E-2</v>
+      </c>
+      <c r="F37" s="27">
+        <f>D31</f>
+        <v>0.52207813798836245</v>
+      </c>
+      <c r="G37" s="27">
+        <f>D32</f>
+        <v>0.19456359102244389</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B38" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="27">
+        <f>E28</f>
+        <v>5.8901303538175055E-2</v>
+      </c>
+      <c r="D38" s="27">
+        <f>E29</f>
+        <v>0.16737430167597764</v>
+      </c>
+      <c r="E38" s="27">
+        <f>E30</f>
+        <v>4.0744878957169446E-2</v>
+      </c>
+      <c r="F38" s="27">
+        <f>E31</f>
+        <v>0.58331471135940405</v>
+      </c>
+      <c r="G38" s="27">
+        <f>E32</f>
+        <v>0.14290502793296092</v>
+      </c>
+    </row>
+    <row r="39" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B39" s="29" t="s">
+        <v>20</v>
+      </c>
+      <c r="C39" s="27">
+        <f>F28</f>
+        <v>6.9422382671480182E-2</v>
+      </c>
+      <c r="D39" s="27">
+        <f>F29</f>
+        <v>0.18855595667870043</v>
+      </c>
+      <c r="E39" s="27">
+        <f>F30</f>
+        <v>6.3104693140794213E-2</v>
+      </c>
+      <c r="F39" s="27">
+        <f>F31</f>
+        <v>0.53850180505415157</v>
+      </c>
+      <c r="G39" s="27">
+        <f>F32</f>
+        <v>0.12243682310469313</v>
+      </c>
+    </row>
+    <row r="40" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B40"/>
+      <c r="C40"/>
+      <c r="D40"/>
+      <c r="E40"/>
+      <c r="F40"/>
+    </row>
+    <row r="41" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B41"/>
+      <c r="C41"/>
+      <c r="D41"/>
+      <c r="E41"/>
+      <c r="F41"/>
+    </row>
+    <row r="42" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B42"/>
+      <c r="C42"/>
+      <c r="D42"/>
+      <c r="E42"/>
+      <c r="F42"/>
+    </row>
+    <row r="43" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B43"/>
+      <c r="C43"/>
+      <c r="D43"/>
+      <c r="E43"/>
+      <c r="F43"/>
+    </row>
+    <row r="44" spans="2:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B44"/>
+      <c r="C44"/>
+      <c r="D44"/>
+      <c r="E44"/>
+      <c r="F44"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/practice_data.xlsx
+++ b/practice_data.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Personal data\Code and Research\visualization and storytelling from data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Personal data\Code and Research\visualization and storytelling from data\Effective_data_visualizations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15A78878-9160-41B2-98A9-52B1C0D5D732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22F687A-F645-4AD5-84EA-D05B9CD126EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3C33E300-94BD-3244-BE01-92DFA5BF64CB}"/>
   </bookViews>
@@ -183,7 +183,7 @@
     <t>3. Clearer category labels that do not overlap to avoid confusion about where overlapping categories are placed.</t>
   </si>
   <si>
-    <t>Transformed Visual</t>
+    <t>Transformed Visuals - 2 trials</t>
   </si>
 </sst>
 </file>
@@ -366,7 +366,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -422,7 +422,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10182,8 +10181,8 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -10370,6 +10369,10 @@
       <c r="B26" s="14" t="s">
         <v>48</v>
       </c>
+      <c r="C26" s="14"/>
+      <c r="D26" s="14"/>
+      <c r="E26" s="14"/>
+      <c r="F26" s="14"/>
     </row>
     <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="B27" s="12" t="s">
@@ -10569,7 +10572,7 @@
       </c>
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B39" s="29" t="s">
+      <c r="B39" s="12" t="s">
         <v>20</v>
       </c>
       <c r="C39" s="27">

--- a/practice_data.xlsx
+++ b/practice_data.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Personal data\Code and Research\visualization and storytelling from data\Effective_data_visualizations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C22F687A-F645-4AD5-84EA-D05B9CD126EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07C0F55F-BA84-437B-95EB-A7799761B2C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{3C33E300-94BD-3244-BE01-92DFA5BF64CB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{3C33E300-94BD-3244-BE01-92DFA5BF64CB}"/>
   </bookViews>
   <sheets>
     <sheet name="Chart_1" sheetId="1" r:id="rId1"/>
     <sheet name="chart_2" sheetId="3" r:id="rId2"/>
+    <sheet name="chart_3" sheetId="4" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="97">
   <si>
     <t>Completion Rate</t>
   </si>
@@ -185,6 +186,152 @@
   <si>
     <t>Transformed Visuals - 2 trials</t>
   </si>
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Month</t>
+  </si>
+  <si>
+    <t>Army</t>
+  </si>
+  <si>
+    <t>Disease</t>
+  </si>
+  <si>
+    <t>Wounds</t>
+  </si>
+  <si>
+    <t>Other</t>
+  </si>
+  <si>
+    <t>Disease.rate</t>
+  </si>
+  <si>
+    <t>Wounds.rate</t>
+  </si>
+  <si>
+    <t>Other.rate</t>
+  </si>
+  <si>
+    <t>1854-04-01</t>
+  </si>
+  <si>
+    <t>Apr</t>
+  </si>
+  <si>
+    <t>1854-05-01</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>1854-06-01</t>
+  </si>
+  <si>
+    <t>Jun</t>
+  </si>
+  <si>
+    <t>1854-07-01</t>
+  </si>
+  <si>
+    <t>Jul</t>
+  </si>
+  <si>
+    <t>1854-08-01</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>1854-09-01</t>
+  </si>
+  <si>
+    <t>Sep</t>
+  </si>
+  <si>
+    <t>1854-10-01</t>
+  </si>
+  <si>
+    <t>Oct</t>
+  </si>
+  <si>
+    <t>1854-11-01</t>
+  </si>
+  <si>
+    <t>Nov</t>
+  </si>
+  <si>
+    <t>1854-12-01</t>
+  </si>
+  <si>
+    <t>Dec</t>
+  </si>
+  <si>
+    <t>1855-01-01</t>
+  </si>
+  <si>
+    <t>Jan</t>
+  </si>
+  <si>
+    <t>1855-02-01</t>
+  </si>
+  <si>
+    <t>Feb</t>
+  </si>
+  <si>
+    <t>1855-03-01</t>
+  </si>
+  <si>
+    <t>Mar</t>
+  </si>
+  <si>
+    <t>1855-04-01</t>
+  </si>
+  <si>
+    <t>1855-05-01</t>
+  </si>
+  <si>
+    <t>1855-06-01</t>
+  </si>
+  <si>
+    <t>1855-07-01</t>
+  </si>
+  <si>
+    <t>1855-08-01</t>
+  </si>
+  <si>
+    <t>1855-09-01</t>
+  </si>
+  <si>
+    <t>1855-10-01</t>
+  </si>
+  <si>
+    <t>1855-11-01</t>
+  </si>
+  <si>
+    <t>1855-12-01</t>
+  </si>
+  <si>
+    <t>1856-01-01</t>
+  </si>
+  <si>
+    <t>1856-02-01</t>
+  </si>
+  <si>
+    <t>1856-03-01</t>
+  </si>
+  <si>
+    <t>Total Deaths</t>
+  </si>
+  <si>
+    <t>Wounds and Other</t>
+  </si>
+  <si>
+    <t>Congratulations on recreating Florence Nightingale's Rose Chart using modern graphics! It is indeed an excellent way to pay tribute to her contribution to the field of data visualization. The original chart was groundbreaking in its time and provided insights into the causes of mortality during the Crimean War.
+However, as you pointed out, a bar chart for summary and a line chart for month on month trend are more suitable for certain data visualization tasks. Bar charts are ideal for comparing values across categories, while line charts are useful for showing trends over time. By using these types of charts, you can provide a more accurate and clear representation of the data, making it easier for viewers to understand the information you are presenting.
+Overall, your efforts to modernize Florence Nightingale's Rose Chart demonstrate the importance of staying up-to-date with the latest visualization techniques and using the right tools to effectively communicate data insights. Well done!</t>
+  </si>
 </sst>
 </file>
 
@@ -193,7 +340,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -243,6 +390,13 @@
       <color rgb="FF4F81BD"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="11">
@@ -362,11 +516,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -419,13 +574,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="1" xr:uid="{B28C4616-D082-47AE-8FAD-92E8AFADFBC7}"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -5734,6 +5895,1470 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Causes of Mortality in the Army in the East</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Apr-1854 - Mar 1856 </a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-8A7D-4868-996D-02F775331474}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-8A7D-4868-996D-02F775331474}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-8A7D-4868-996D-02F775331474}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_3!$E$59:$G$59</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Disease</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Wounds</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_3!$E$60:$G$60</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>14476</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1758</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1748</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-8A7D-4868-996D-02F775331474}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="636277304"/>
+        <c:axId val="636275864"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="636277304"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="636275864"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="636275864"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="636277304"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+              <a:lnSpc>
+                <a:spcPct val="100000"/>
+              </a:lnSpc>
+              <a:spcBef>
+                <a:spcPts val="0"/>
+              </a:spcBef>
+              <a:spcAft>
+                <a:spcPts val="0"/>
+              </a:spcAft>
+              <a:buClrTx/>
+              <a:buSzTx/>
+              <a:buFontTx/>
+              <a:buNone/>
+              <a:tabLst/>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Monthly Causes of Mortality in the Army in the East</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US" sz="1800" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+            </a:br>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10749630582092651"/>
+          <c:y val="1.9656009515365867E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="ctr" defTabSz="914400" rtl="0" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:sysClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2222222222222223E-2"/>
+          <c:y val="0.16810172701015114"/>
+          <c:w val="0.9555555555555556"/>
+          <c:h val="0.59876340799865768"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_3!$E$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Disease</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-4.0287775870054325E-2"/>
+                  <c:y val="-2.2932011101260297E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000001-BB7A-41EF-9617-0376FA7C6F9E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="9"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.8369310352432691E-2"/>
+                  <c:y val="-2.9484014273048798E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-BB7A-41EF-9617-0376FA7C6F9E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="14"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-3.2613913799567858E-2"/>
+                  <c:y val="-1.9656009515365867E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000002-BB7A-41EF-9617-0376FA7C6F9E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="19"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-2.110312069383798E-2"/>
+                  <c:y val="-2.2932011101260176E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-BB7A-41EF-9617-0376FA7C6F9E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:numFmt formatCode="#,##0" sourceLinked="0"/>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>chart_3!$B$33:$C$56</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="24"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Jun</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Jul</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Aug</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Sep</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Oct</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Nov</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Dec</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Jun</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Jul</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Aug</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Sep</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Oct</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Nov</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Dec</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1854</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1855</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1856</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_3!$E$33:$E$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>359</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>828</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>788</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>844</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1725</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2761</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2120</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1205</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>477</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>508</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>802</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>382</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>483</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>189</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B855-4DF3-B508-A6CEFF17CDAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_3!$F$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Wounds</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>chart_3!$B$33:$C$56</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="24"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Jun</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Jul</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Aug</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Sep</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Oct</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Nov</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Dec</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Jun</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Jul</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Aug</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Sep</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Oct</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Nov</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Dec</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1854</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1855</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1856</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_3!$F$33:$F$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>287</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>114</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>209</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>164</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>276</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-B855-4DF3-B508-A6CEFF17CDAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_3!$G$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Other</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>chart_3!$B$33:$C$56</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="24"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Jun</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Jul</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Aug</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Sep</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Oct</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Nov</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>Dec</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="10">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="11">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                  <c:pt idx="12">
+                    <c:v>Apr</c:v>
+                  </c:pt>
+                  <c:pt idx="13">
+                    <c:v>May</c:v>
+                  </c:pt>
+                  <c:pt idx="14">
+                    <c:v>Jun</c:v>
+                  </c:pt>
+                  <c:pt idx="15">
+                    <c:v>Jul</c:v>
+                  </c:pt>
+                  <c:pt idx="16">
+                    <c:v>Aug</c:v>
+                  </c:pt>
+                  <c:pt idx="17">
+                    <c:v>Sep</c:v>
+                  </c:pt>
+                  <c:pt idx="18">
+                    <c:v>Oct</c:v>
+                  </c:pt>
+                  <c:pt idx="19">
+                    <c:v>Nov</c:v>
+                  </c:pt>
+                  <c:pt idx="20">
+                    <c:v>Dec</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>Jan</c:v>
+                  </c:pt>
+                  <c:pt idx="22">
+                    <c:v>Feb</c:v>
+                  </c:pt>
+                  <c:pt idx="23">
+                    <c:v>Mar</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1854</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1855</c:v>
+                  </c:pt>
+                  <c:pt idx="21">
+                    <c:v>1856</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_3!$G$33:$G$56</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="24"/>
+                <c:pt idx="0">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>106</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>324</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>361</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>172</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>35</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-B855-4DF3-B508-A6CEFF17CDAC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="102203824"/>
+        <c:axId val="344341352"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="102203824"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="344341352"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="344341352"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="65000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="102203824"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -5934,6 +7559,86 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -8436,6 +10141,1025 @@
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -9335,6 +12059,453 @@
 </c:userShapes>
 </file>
 
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A107EBC-2D3B-00A8-A750-0A1628E40B0C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7772401" y="133351"/>
+          <a:ext cx="9620250" cy="5905500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>90486</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65456D99-FC7E-9E39-974E-86D74AFA483D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1114426</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E95663-E074-E697-099B-206F31A7600C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.2225</cdr:x>
+      <cdr:y>0.39075</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.69396</cdr:x>
+      <cdr:y>0.46787</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D934790F-597B-F0DB-8649-D6EDE8123D8B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1281113" y="1447802"/>
+          <a:ext cx="2714625" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Diseases</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> accounted</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> for  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>80% </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>of the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> deaths </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.10326</cdr:x>
+      <cdr:y>0.09828</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.44265</cdr:x>
+      <cdr:y>0.16462</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76BA023F-E6C5-946D-885C-A51DD99ED735}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="683562" y="410022"/>
+          <a:ext cx="2246745" cy="276764"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Diseases</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Wounds</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300"/>
+            <a:t>Other</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.51428</cdr:x>
+      <cdr:y>0.1467</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.55026</cdr:x>
+      <cdr:y>0.56033</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801FCFCE-A184-BA6C-811A-D242CE091E10}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="3033564">
+          <a:off x="2721807" y="1251404"/>
+          <a:ext cx="1603506" cy="238124"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> decrease since Feb_55</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.34193</cdr:x>
+      <cdr:y>0.16369</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.38605</cdr:x>
+      <cdr:y>0.60611</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BDCE26-7ECB-E23D-737D-82270B204AC6}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="17594407">
+          <a:off x="1552020" y="1346080"/>
+          <a:ext cx="1715125" cy="292102"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>spike  from</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Oct_54</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -9638,7 +12809,7 @@
   <dimension ref="A1:Q45"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="Q37" sqref="Q37"/>
     </sheetView>
   </sheetViews>
@@ -9702,17 +12873,17 @@
       <c r="D6" s="6">
         <v>2.3E-2</v>
       </c>
-      <c r="F6" s="28" t="s">
+      <c r="F6" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="28"/>
-      <c r="N6" s="28"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="30"/>
+      <c r="M6" s="30"/>
+      <c r="N6" s="30"/>
       <c r="Q6" s="1" t="s">
         <v>16</v>
       </c>
@@ -10180,8 +13351,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4826435D-A3F9-49E4-8457-82E47D20EC0E}">
   <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
@@ -10636,4 +13807,1715 @@
   <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CC1BA4-E921-4AA4-A584-D3625E98DAE6}">
+  <dimension ref="A1:V81"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="F45" workbookViewId="0">
+      <selection activeCell="W79" sqref="W79"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.25" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E1" t="s">
+        <v>52</v>
+      </c>
+      <c r="F1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G1" t="s">
+        <v>54</v>
+      </c>
+      <c r="H1" t="s">
+        <v>55</v>
+      </c>
+      <c r="I1" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C2">
+        <v>1854</v>
+      </c>
+      <c r="D2">
+        <v>8571</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>0</v>
+      </c>
+      <c r="G2">
+        <v>5</v>
+      </c>
+      <c r="H2">
+        <v>1.4</v>
+      </c>
+      <c r="I2">
+        <v>0</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>60</v>
+      </c>
+      <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3">
+        <v>1854</v>
+      </c>
+      <c r="D3">
+        <v>23333</v>
+      </c>
+      <c r="E3">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>9</v>
+      </c>
+      <c r="H3">
+        <v>6.2</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4" t="s">
+        <v>63</v>
+      </c>
+      <c r="C4">
+        <v>1854</v>
+      </c>
+      <c r="D4">
+        <v>28333</v>
+      </c>
+      <c r="E4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>6</v>
+      </c>
+      <c r="H4">
+        <v>4.7</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>64</v>
+      </c>
+      <c r="B5" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5">
+        <v>1854</v>
+      </c>
+      <c r="D5">
+        <v>28722</v>
+      </c>
+      <c r="E5">
+        <v>359</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>23</v>
+      </c>
+      <c r="H5">
+        <v>150</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C6">
+        <v>1854</v>
+      </c>
+      <c r="D6">
+        <v>30246</v>
+      </c>
+      <c r="E6">
+        <v>828</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
+      </c>
+      <c r="H6">
+        <v>328.5</v>
+      </c>
+      <c r="I6">
+        <v>0.4</v>
+      </c>
+      <c r="J6">
+        <v>11.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>68</v>
+      </c>
+      <c r="B7" t="s">
+        <v>69</v>
+      </c>
+      <c r="C7">
+        <v>1854</v>
+      </c>
+      <c r="D7">
+        <v>30290</v>
+      </c>
+      <c r="E7">
+        <v>788</v>
+      </c>
+      <c r="F7">
+        <v>81</v>
+      </c>
+      <c r="G7">
+        <v>70</v>
+      </c>
+      <c r="H7">
+        <v>312.2</v>
+      </c>
+      <c r="I7">
+        <v>32.1</v>
+      </c>
+      <c r="J7">
+        <v>27.7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" t="s">
+        <v>71</v>
+      </c>
+      <c r="C8">
+        <v>1854</v>
+      </c>
+      <c r="D8">
+        <v>30643</v>
+      </c>
+      <c r="E8">
+        <v>503</v>
+      </c>
+      <c r="F8">
+        <v>132</v>
+      </c>
+      <c r="G8">
+        <v>128</v>
+      </c>
+      <c r="H8">
+        <v>197</v>
+      </c>
+      <c r="I8">
+        <v>51.7</v>
+      </c>
+      <c r="J8">
+        <v>50.1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>72</v>
+      </c>
+      <c r="B9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C9">
+        <v>1854</v>
+      </c>
+      <c r="D9">
+        <v>29736</v>
+      </c>
+      <c r="E9">
+        <v>844</v>
+      </c>
+      <c r="F9">
+        <v>287</v>
+      </c>
+      <c r="G9">
+        <v>106</v>
+      </c>
+      <c r="H9">
+        <v>340.6</v>
+      </c>
+      <c r="I9">
+        <v>115.8</v>
+      </c>
+      <c r="J9">
+        <v>42.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>75</v>
+      </c>
+      <c r="C10">
+        <v>1854</v>
+      </c>
+      <c r="D10">
+        <v>32779</v>
+      </c>
+      <c r="E10">
+        <v>1725</v>
+      </c>
+      <c r="F10">
+        <v>114</v>
+      </c>
+      <c r="G10">
+        <v>131</v>
+      </c>
+      <c r="H10">
+        <v>631.5</v>
+      </c>
+      <c r="I10">
+        <v>41.7</v>
+      </c>
+      <c r="J10">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>76</v>
+      </c>
+      <c r="B11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C11">
+        <v>1855</v>
+      </c>
+      <c r="D11">
+        <v>32393</v>
+      </c>
+      <c r="E11">
+        <v>2761</v>
+      </c>
+      <c r="F11">
+        <v>83</v>
+      </c>
+      <c r="G11">
+        <v>324</v>
+      </c>
+      <c r="H11">
+        <v>1022.8</v>
+      </c>
+      <c r="I11">
+        <v>30.7</v>
+      </c>
+      <c r="J11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>78</v>
+      </c>
+      <c r="B12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C12">
+        <v>1855</v>
+      </c>
+      <c r="D12">
+        <v>30919</v>
+      </c>
+      <c r="E12">
+        <v>2120</v>
+      </c>
+      <c r="F12">
+        <v>42</v>
+      </c>
+      <c r="G12">
+        <v>361</v>
+      </c>
+      <c r="H12">
+        <v>822.8</v>
+      </c>
+      <c r="I12">
+        <v>16.3</v>
+      </c>
+      <c r="J12">
+        <v>140.1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>80</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13">
+        <v>1855</v>
+      </c>
+      <c r="D13">
+        <v>30107</v>
+      </c>
+      <c r="E13">
+        <v>1205</v>
+      </c>
+      <c r="F13">
+        <v>32</v>
+      </c>
+      <c r="G13">
+        <v>172</v>
+      </c>
+      <c r="H13">
+        <v>480.3</v>
+      </c>
+      <c r="I13">
+        <v>12.8</v>
+      </c>
+      <c r="J13">
+        <v>68.599999999999994</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>82</v>
+      </c>
+      <c r="B14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C14">
+        <v>1855</v>
+      </c>
+      <c r="D14">
+        <v>32252</v>
+      </c>
+      <c r="E14">
+        <v>477</v>
+      </c>
+      <c r="F14">
+        <v>48</v>
+      </c>
+      <c r="G14">
+        <v>57</v>
+      </c>
+      <c r="H14">
+        <v>177.5</v>
+      </c>
+      <c r="I14">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="J14">
+        <v>21.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>83</v>
+      </c>
+      <c r="B15" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15">
+        <v>1855</v>
+      </c>
+      <c r="D15">
+        <v>35473</v>
+      </c>
+      <c r="E15">
+        <v>508</v>
+      </c>
+      <c r="F15">
+        <v>49</v>
+      </c>
+      <c r="G15">
+        <v>37</v>
+      </c>
+      <c r="H15">
+        <v>171.8</v>
+      </c>
+      <c r="I15">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J15">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>84</v>
+      </c>
+      <c r="B16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C16">
+        <v>1855</v>
+      </c>
+      <c r="D16">
+        <v>38863</v>
+      </c>
+      <c r="E16">
+        <v>802</v>
+      </c>
+      <c r="F16">
+        <v>209</v>
+      </c>
+      <c r="G16">
+        <v>31</v>
+      </c>
+      <c r="H16">
+        <v>247.6</v>
+      </c>
+      <c r="I16">
+        <v>64.5</v>
+      </c>
+      <c r="J16">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>85</v>
+      </c>
+      <c r="B17" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17">
+        <v>1855</v>
+      </c>
+      <c r="D17">
+        <v>42647</v>
+      </c>
+      <c r="E17">
+        <v>382</v>
+      </c>
+      <c r="F17">
+        <v>134</v>
+      </c>
+      <c r="G17">
+        <v>33</v>
+      </c>
+      <c r="H17">
+        <v>107.5</v>
+      </c>
+      <c r="I17">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="J17">
+        <v>9.3000000000000007</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>86</v>
+      </c>
+      <c r="B18" t="s">
+        <v>67</v>
+      </c>
+      <c r="C18">
+        <v>1855</v>
+      </c>
+      <c r="D18">
+        <v>44614</v>
+      </c>
+      <c r="E18">
+        <v>483</v>
+      </c>
+      <c r="F18">
+        <v>164</v>
+      </c>
+      <c r="G18">
+        <v>25</v>
+      </c>
+      <c r="H18">
+        <v>129.9</v>
+      </c>
+      <c r="I18">
+        <v>44.1</v>
+      </c>
+      <c r="J18">
+        <v>6.7</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>87</v>
+      </c>
+      <c r="B19" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19">
+        <v>1855</v>
+      </c>
+      <c r="D19">
+        <v>47751</v>
+      </c>
+      <c r="E19">
+        <v>189</v>
+      </c>
+      <c r="F19">
+        <v>276</v>
+      </c>
+      <c r="G19">
+        <v>20</v>
+      </c>
+      <c r="H19">
+        <v>47.5</v>
+      </c>
+      <c r="I19">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="J19">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>88</v>
+      </c>
+      <c r="B20" t="s">
+        <v>71</v>
+      </c>
+      <c r="C20">
+        <v>1855</v>
+      </c>
+      <c r="D20">
+        <v>46852</v>
+      </c>
+      <c r="E20">
+        <v>128</v>
+      </c>
+      <c r="F20">
+        <v>53</v>
+      </c>
+      <c r="G20">
+        <v>18</v>
+      </c>
+      <c r="H20">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="I20">
+        <v>13.6</v>
+      </c>
+      <c r="J20">
+        <v>4.5999999999999996</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" t="s">
+        <v>73</v>
+      </c>
+      <c r="C21">
+        <v>1855</v>
+      </c>
+      <c r="D21">
+        <v>37853</v>
+      </c>
+      <c r="E21">
+        <v>178</v>
+      </c>
+      <c r="F21">
+        <v>33</v>
+      </c>
+      <c r="G21">
+        <v>32</v>
+      </c>
+      <c r="H21">
+        <v>56.4</v>
+      </c>
+      <c r="I21">
+        <v>10.5</v>
+      </c>
+      <c r="J21">
+        <v>10.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>90</v>
+      </c>
+      <c r="B22" t="s">
+        <v>75</v>
+      </c>
+      <c r="C22">
+        <v>1855</v>
+      </c>
+      <c r="D22">
+        <v>43217</v>
+      </c>
+      <c r="E22">
+        <v>91</v>
+      </c>
+      <c r="F22">
+        <v>18</v>
+      </c>
+      <c r="G22">
+        <v>28</v>
+      </c>
+      <c r="H22">
+        <v>25.3</v>
+      </c>
+      <c r="I22">
+        <v>5</v>
+      </c>
+      <c r="J22">
+        <v>7.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>91</v>
+      </c>
+      <c r="B23" t="s">
+        <v>77</v>
+      </c>
+      <c r="C23">
+        <v>1856</v>
+      </c>
+      <c r="D23">
+        <v>44212</v>
+      </c>
+      <c r="E23">
+        <v>42</v>
+      </c>
+      <c r="F23">
+        <v>2</v>
+      </c>
+      <c r="G23">
+        <v>48</v>
+      </c>
+      <c r="H23">
+        <v>11.4</v>
+      </c>
+      <c r="I23">
+        <v>0.5</v>
+      </c>
+      <c r="J23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>92</v>
+      </c>
+      <c r="B24" t="s">
+        <v>79</v>
+      </c>
+      <c r="C24">
+        <v>1856</v>
+      </c>
+      <c r="D24">
+        <v>43485</v>
+      </c>
+      <c r="E24">
+        <v>24</v>
+      </c>
+      <c r="F24">
+        <v>0</v>
+      </c>
+      <c r="G24">
+        <v>19</v>
+      </c>
+      <c r="H24">
+        <v>6.6</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>5.2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B25" t="s">
+        <v>81</v>
+      </c>
+      <c r="C25">
+        <v>1856</v>
+      </c>
+      <c r="D25">
+        <v>46140</v>
+      </c>
+      <c r="E25">
+        <v>15</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25">
+        <v>35</v>
+      </c>
+      <c r="H25">
+        <v>3.9</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>9.1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32" t="s">
+        <v>50</v>
+      </c>
+      <c r="D32" t="s">
+        <v>51</v>
+      </c>
+      <c r="E32" t="s">
+        <v>52</v>
+      </c>
+      <c r="F32" t="s">
+        <v>53</v>
+      </c>
+      <c r="G32" t="s">
+        <v>54</v>
+      </c>
+      <c r="H32" t="s">
+        <v>55</v>
+      </c>
+      <c r="I32" t="s">
+        <v>56</v>
+      </c>
+      <c r="J32" t="s">
+        <v>57</v>
+      </c>
+      <c r="K32" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>58</v>
+      </c>
+      <c r="B33">
+        <v>1854</v>
+      </c>
+      <c r="C33" t="s">
+        <v>59</v>
+      </c>
+      <c r="D33">
+        <v>8571</v>
+      </c>
+      <c r="E33">
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <v>0</v>
+      </c>
+      <c r="G33">
+        <v>5</v>
+      </c>
+      <c r="H33">
+        <v>1.4</v>
+      </c>
+      <c r="I33">
+        <v>0</v>
+      </c>
+      <c r="J33">
+        <v>7</v>
+      </c>
+      <c r="K33">
+        <f>SUM(F33,G33)</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>60</v>
+      </c>
+      <c r="C34" t="s">
+        <v>61</v>
+      </c>
+      <c r="D34">
+        <v>23333</v>
+      </c>
+      <c r="E34">
+        <v>12</v>
+      </c>
+      <c r="F34">
+        <v>0</v>
+      </c>
+      <c r="G34">
+        <v>9</v>
+      </c>
+      <c r="H34">
+        <v>6.2</v>
+      </c>
+      <c r="I34">
+        <v>0</v>
+      </c>
+      <c r="J34">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K34">
+        <f t="shared" ref="K34:K56" si="0">SUM(F34,G34)</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" t="s">
+        <v>63</v>
+      </c>
+      <c r="D35">
+        <v>28333</v>
+      </c>
+      <c r="E35">
+        <v>11</v>
+      </c>
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>6</v>
+      </c>
+      <c r="H35">
+        <v>4.7</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <v>2.5</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="C36" t="s">
+        <v>65</v>
+      </c>
+      <c r="D36">
+        <v>28722</v>
+      </c>
+      <c r="E36">
+        <v>359</v>
+      </c>
+      <c r="F36">
+        <v>0</v>
+      </c>
+      <c r="G36">
+        <v>23</v>
+      </c>
+      <c r="H36">
+        <v>150</v>
+      </c>
+      <c r="I36">
+        <v>0</v>
+      </c>
+      <c r="J36">
+        <v>9.6</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="0"/>
+        <v>23</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>66</v>
+      </c>
+      <c r="C37" t="s">
+        <v>67</v>
+      </c>
+      <c r="D37">
+        <v>30246</v>
+      </c>
+      <c r="E37">
+        <v>828</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>30</v>
+      </c>
+      <c r="H37">
+        <v>328.5</v>
+      </c>
+      <c r="I37">
+        <v>0.4</v>
+      </c>
+      <c r="J37">
+        <v>11.9</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="0"/>
+        <v>31</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" t="s">
+        <v>69</v>
+      </c>
+      <c r="D38">
+        <v>30290</v>
+      </c>
+      <c r="E38">
+        <v>788</v>
+      </c>
+      <c r="F38">
+        <v>81</v>
+      </c>
+      <c r="G38">
+        <v>70</v>
+      </c>
+      <c r="H38">
+        <v>312.2</v>
+      </c>
+      <c r="I38">
+        <v>32.1</v>
+      </c>
+      <c r="J38">
+        <v>27.7</v>
+      </c>
+      <c r="K38">
+        <f t="shared" si="0"/>
+        <v>151</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>70</v>
+      </c>
+      <c r="C39" t="s">
+        <v>71</v>
+      </c>
+      <c r="D39">
+        <v>30643</v>
+      </c>
+      <c r="E39">
+        <v>503</v>
+      </c>
+      <c r="F39">
+        <v>132</v>
+      </c>
+      <c r="G39">
+        <v>128</v>
+      </c>
+      <c r="H39">
+        <v>197</v>
+      </c>
+      <c r="I39">
+        <v>51.7</v>
+      </c>
+      <c r="J39">
+        <v>50.1</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" t="s">
+        <v>73</v>
+      </c>
+      <c r="D40">
+        <v>29736</v>
+      </c>
+      <c r="E40">
+        <v>844</v>
+      </c>
+      <c r="F40">
+        <v>287</v>
+      </c>
+      <c r="G40">
+        <v>106</v>
+      </c>
+      <c r="H40">
+        <v>340.6</v>
+      </c>
+      <c r="I40">
+        <v>115.8</v>
+      </c>
+      <c r="J40">
+        <v>42.8</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="0"/>
+        <v>393</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>74</v>
+      </c>
+      <c r="C41" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41">
+        <v>32779</v>
+      </c>
+      <c r="E41">
+        <v>1725</v>
+      </c>
+      <c r="F41">
+        <v>114</v>
+      </c>
+      <c r="G41">
+        <v>131</v>
+      </c>
+      <c r="H41">
+        <v>631.5</v>
+      </c>
+      <c r="I41">
+        <v>41.7</v>
+      </c>
+      <c r="J41">
+        <v>48</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>76</v>
+      </c>
+      <c r="B42">
+        <v>1855</v>
+      </c>
+      <c r="C42" t="s">
+        <v>77</v>
+      </c>
+      <c r="D42">
+        <v>32393</v>
+      </c>
+      <c r="E42">
+        <v>2761</v>
+      </c>
+      <c r="F42">
+        <v>83</v>
+      </c>
+      <c r="G42">
+        <v>324</v>
+      </c>
+      <c r="H42">
+        <v>1022.8</v>
+      </c>
+      <c r="I42">
+        <v>30.7</v>
+      </c>
+      <c r="J42">
+        <v>120</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="0"/>
+        <v>407</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>78</v>
+      </c>
+      <c r="C43" t="s">
+        <v>79</v>
+      </c>
+      <c r="D43">
+        <v>30919</v>
+      </c>
+      <c r="E43">
+        <v>2120</v>
+      </c>
+      <c r="F43">
+        <v>42</v>
+      </c>
+      <c r="G43">
+        <v>361</v>
+      </c>
+      <c r="H43">
+        <v>822.8</v>
+      </c>
+      <c r="I43">
+        <v>16.3</v>
+      </c>
+      <c r="J43">
+        <v>140.1</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="0"/>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>80</v>
+      </c>
+      <c r="C44" t="s">
+        <v>81</v>
+      </c>
+      <c r="D44">
+        <v>30107</v>
+      </c>
+      <c r="E44">
+        <v>1205</v>
+      </c>
+      <c r="F44">
+        <v>32</v>
+      </c>
+      <c r="G44">
+        <v>172</v>
+      </c>
+      <c r="H44">
+        <v>480.3</v>
+      </c>
+      <c r="I44">
+        <v>12.8</v>
+      </c>
+      <c r="J44">
+        <v>68.599999999999994</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="0"/>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>82</v>
+      </c>
+      <c r="C45" t="s">
+        <v>59</v>
+      </c>
+      <c r="D45">
+        <v>32252</v>
+      </c>
+      <c r="E45">
+        <v>477</v>
+      </c>
+      <c r="F45">
+        <v>48</v>
+      </c>
+      <c r="G45">
+        <v>57</v>
+      </c>
+      <c r="H45">
+        <v>177.5</v>
+      </c>
+      <c r="I45">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="J45">
+        <v>21.2</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="0"/>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>83</v>
+      </c>
+      <c r="C46" t="s">
+        <v>61</v>
+      </c>
+      <c r="D46">
+        <v>35473</v>
+      </c>
+      <c r="E46">
+        <v>508</v>
+      </c>
+      <c r="F46">
+        <v>49</v>
+      </c>
+      <c r="G46">
+        <v>37</v>
+      </c>
+      <c r="H46">
+        <v>171.8</v>
+      </c>
+      <c r="I46">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="J46">
+        <v>12.5</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="0"/>
+        <v>86</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>84</v>
+      </c>
+      <c r="C47" t="s">
+        <v>63</v>
+      </c>
+      <c r="D47">
+        <v>38863</v>
+      </c>
+      <c r="E47">
+        <v>802</v>
+      </c>
+      <c r="F47">
+        <v>209</v>
+      </c>
+      <c r="G47">
+        <v>31</v>
+      </c>
+      <c r="H47">
+        <v>247.6</v>
+      </c>
+      <c r="I47">
+        <v>64.5</v>
+      </c>
+      <c r="J47">
+        <v>9.6</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>85</v>
+      </c>
+      <c r="C48" t="s">
+        <v>65</v>
+      </c>
+      <c r="D48">
+        <v>42647</v>
+      </c>
+      <c r="E48">
+        <v>382</v>
+      </c>
+      <c r="F48">
+        <v>134</v>
+      </c>
+      <c r="G48">
+        <v>33</v>
+      </c>
+      <c r="H48">
+        <v>107.5</v>
+      </c>
+      <c r="I48">
+        <v>37.700000000000003</v>
+      </c>
+      <c r="J48">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="0"/>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>86</v>
+      </c>
+      <c r="C49" t="s">
+        <v>67</v>
+      </c>
+      <c r="D49">
+        <v>44614</v>
+      </c>
+      <c r="E49">
+        <v>483</v>
+      </c>
+      <c r="F49">
+        <v>164</v>
+      </c>
+      <c r="G49">
+        <v>25</v>
+      </c>
+      <c r="H49">
+        <v>129.9</v>
+      </c>
+      <c r="I49">
+        <v>44.1</v>
+      </c>
+      <c r="J49">
+        <v>6.7</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="0"/>
+        <v>189</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>87</v>
+      </c>
+      <c r="C50" t="s">
+        <v>69</v>
+      </c>
+      <c r="D50">
+        <v>47751</v>
+      </c>
+      <c r="E50">
+        <v>189</v>
+      </c>
+      <c r="F50">
+        <v>276</v>
+      </c>
+      <c r="G50">
+        <v>20</v>
+      </c>
+      <c r="H50">
+        <v>47.5</v>
+      </c>
+      <c r="I50">
+        <v>69.400000000000006</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="0"/>
+        <v>296</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" t="s">
+        <v>71</v>
+      </c>
+      <c r="D51">
+        <v>46852</v>
+      </c>
+      <c r="E51">
+        <v>128</v>
+      </c>
+      <c r="F51">
+        <v>53</v>
+      </c>
+      <c r="G51">
+        <v>18</v>
+      </c>
+      <c r="H51">
+        <v>32.799999999999997</v>
+      </c>
+      <c r="I51">
+        <v>13.6</v>
+      </c>
+      <c r="J51">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="0"/>
+        <v>71</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>89</v>
+      </c>
+      <c r="C52" t="s">
+        <v>73</v>
+      </c>
+      <c r="D52">
+        <v>37853</v>
+      </c>
+      <c r="E52">
+        <v>178</v>
+      </c>
+      <c r="F52">
+        <v>33</v>
+      </c>
+      <c r="G52">
+        <v>32</v>
+      </c>
+      <c r="H52">
+        <v>56.4</v>
+      </c>
+      <c r="I52">
+        <v>10.5</v>
+      </c>
+      <c r="J52">
+        <v>10.1</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="0"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" t="s">
+        <v>75</v>
+      </c>
+      <c r="D53">
+        <v>43217</v>
+      </c>
+      <c r="E53">
+        <v>91</v>
+      </c>
+      <c r="F53">
+        <v>18</v>
+      </c>
+      <c r="G53">
+        <v>28</v>
+      </c>
+      <c r="H53">
+        <v>25.3</v>
+      </c>
+      <c r="I53">
+        <v>5</v>
+      </c>
+      <c r="J53">
+        <v>7.8</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="0"/>
+        <v>46</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54">
+        <v>1856</v>
+      </c>
+      <c r="C54" t="s">
+        <v>77</v>
+      </c>
+      <c r="D54">
+        <v>44212</v>
+      </c>
+      <c r="E54">
+        <v>42</v>
+      </c>
+      <c r="F54">
+        <v>2</v>
+      </c>
+      <c r="G54">
+        <v>48</v>
+      </c>
+      <c r="H54">
+        <v>11.4</v>
+      </c>
+      <c r="I54">
+        <v>0.5</v>
+      </c>
+      <c r="J54">
+        <v>13</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" t="s">
+        <v>79</v>
+      </c>
+      <c r="D55">
+        <v>43485</v>
+      </c>
+      <c r="E55">
+        <v>24</v>
+      </c>
+      <c r="F55">
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <v>19</v>
+      </c>
+      <c r="H55">
+        <v>6.6</v>
+      </c>
+      <c r="I55">
+        <v>0</v>
+      </c>
+      <c r="J55">
+        <v>5.2</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="0"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>93</v>
+      </c>
+      <c r="C56" t="s">
+        <v>81</v>
+      </c>
+      <c r="D56">
+        <v>46140</v>
+      </c>
+      <c r="E56">
+        <v>15</v>
+      </c>
+      <c r="F56">
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <v>35</v>
+      </c>
+      <c r="H56">
+        <v>3.9</v>
+      </c>
+      <c r="I56">
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <v>9.1</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="0"/>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P57" s="29"/>
+      <c r="Q57" s="29"/>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="P58" s="28"/>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E59" t="s">
+        <v>52</v>
+      </c>
+      <c r="F59" t="s">
+        <v>53</v>
+      </c>
+      <c r="G59" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>94</v>
+      </c>
+      <c r="E60" s="29">
+        <f>SUM(E33:E56)</f>
+        <v>14476</v>
+      </c>
+      <c r="F60" s="29">
+        <f>SUM(F33:F56)</f>
+        <v>1758</v>
+      </c>
+      <c r="G60" s="29">
+        <f>SUM(G33:G56)</f>
+        <v>1748</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="E61" s="28">
+        <f>E60/SUM($E$60:$G$60)</f>
+        <v>0.80502724947169391</v>
+      </c>
+      <c r="F61" s="28">
+        <f t="shared" ref="F61:G61" si="1">F60/SUM($E$60:$G$60)</f>
+        <v>9.7764431097764434E-2</v>
+      </c>
+      <c r="G61" s="28">
+        <f t="shared" si="1"/>
+        <v>9.7208319430541659E-2</v>
+      </c>
+    </row>
+    <row r="81" spans="22:22" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="V81" s="31" t="s">
+        <v>96</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
 </file>
--- a/practice_data.xlsx
+++ b/practice_data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Personal data\Code and Research\visualization and storytelling from data\Effective_data_visualizations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0502F601-4C5F-424E-ACED-D00BFC7BC76D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01126772-4706-4F2F-B992-B2B7433F34BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C33E300-94BD-3244-BE01-92DFA5BF64CB}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="110">
   <si>
     <t>Completion Rate</t>
   </si>
@@ -368,15 +368,6 @@
   </si>
   <si>
     <t>Survey item A</t>
-  </si>
-  <si>
-    <t>what I appreciate</t>
-  </si>
-  <si>
-    <t>The color choice to have the 2 agree and disagree groupd is very helpful for visual comparisons especially if the intent is to have the audience compare the groups as Disagree-Neutral-Agree</t>
-  </si>
-  <si>
-    <t>If there is any intention to have the audience compare the 2 groups of agree and disagree, the similar coloring takes from that, adding data labes would be very helpful</t>
   </si>
   <si>
     <t>agree</t>
@@ -3004,7 +2995,7 @@
           <c:x val="0.17429682281062944"/>
           <c:y val="0.14746888097136931"/>
           <c:w val="0.8040869076152416"/>
-          <c:h val="0.82029671264215975"/>
+          <c:h val="0.75141611191831315"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -15608,15 +15599,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>466725</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:colOff>409575</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16123,6 +16114,234 @@
             </a:rPr>
             <a:t>Strongly Agree</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>165905</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>31119</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="11" name="TextBox 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65AFF00B-4558-BA27-B157-29DA0303767C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="18297525" y="9229725"/>
+          <a:ext cx="6433355" cy="431169"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle>
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1700" b="1">
+              <a:solidFill>
+                <a:srgbClr val="515151"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Disagree </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1700" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>| </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1700" b="0">
+              <a:solidFill>
+                <a:srgbClr val="CBCBCB"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Neutral</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1700" b="1">
+              <a:solidFill>
+                <a:srgbClr val="CBCBCB"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1700" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>|</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1700" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1700" b="1">
+              <a:solidFill>
+                <a:srgbClr val="285E91"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Agree</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1700" b="1">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-GB" sz="1700" b="1">
+            <a:solidFill>
+              <a:srgbClr val="285E91"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -16861,19 +17080,19 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.11676</cdr:x>
-      <cdr:y>0.06705</cdr:y>
+      <cdr:x>0.15878</cdr:x>
+      <cdr:y>0.02583</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>0.99222</cdr:x>
-      <cdr:y>0.15057</cdr:y>
+      <cdr:x>0.84964</cdr:x>
+      <cdr:y>0.17712</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 4">
+        <cdr:cNvPr id="5" name="TextBox 4">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32766390-F50E-1B99-8429-A68FA1103C13}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C2317756-A293-5292-57D4-35E20F1194DE}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -16881,222 +17100,236 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="858034" y="311659"/>
-          <a:ext cx="6433355" cy="388211"/>
+          <a:off x="1166814" y="133351"/>
+          <a:ext cx="5076825" cy="781050"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
       </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </cdr:style>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:srgbClr val="515151"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
+            </a:rPr>
+            <a:t>Survey Results</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:br>
+            <a:rPr kumimoji="0" lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:srgbClr val="515151"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
-                <a:schemeClr val="dk1"/>
+                <a:srgbClr val="515151"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-GB" sz="1700" b="1">
-              <a:solidFill>
-                <a:srgbClr val="515151"/>
-              </a:solidFill>
             </a:rPr>
             <a:t>Disagree </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1700" b="1">
+            <a:rPr kumimoji="0" lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
-                <a:schemeClr val="bg1">
+                <a:prstClr val="white">
                   <a:lumMod val="75000"/>
-                </a:schemeClr>
+                </a:prstClr>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>| </a:t>
+            <a:t>|</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1700" b="0">
+            <a:rPr kumimoji="0" lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:solidFill>
+                <a:prstClr val="white">
+                  <a:lumMod val="50000"/>
+                </a:prstClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="0" lang="en-GB" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
                 <a:srgbClr val="CBCBCB"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Neutral</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1700" b="1">
+            <a:rPr kumimoji="0" lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
                 <a:srgbClr val="CBCBCB"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t> </a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1700" b="1">
+            <a:rPr kumimoji="0" lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
-                <a:schemeClr val="bg1">
+                <a:prstClr val="white">
                   <a:lumMod val="75000"/>
-                </a:schemeClr>
+                </a:prstClr>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>|</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1700" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-GB" sz="1700" b="1">
+            <a:rPr kumimoji="0" lang="en-GB" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="0" cap="none" spc="0" normalizeH="0" baseline="0" noProof="0">
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
               <a:solidFill>
                 <a:srgbClr val="285E91"/>
               </a:solidFill>
+              <a:effectLst/>
+              <a:uLnTx/>
+              <a:uFillTx/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>Agree</a:t>
           </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-GB" sz="1700" b="1">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:rPr>
+            <a:rPr lang="en-US" sz="1100"/>
             <a:t> </a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" sz="1700" b="1">
-            <a:solidFill>
-              <a:srgbClr val="285E91"/>
-            </a:solidFill>
-          </a:endParaRPr>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
   </cdr:relSizeAnchor>
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
-      <cdr:x>0.11515</cdr:x>
-      <cdr:y>0</cdr:y>
+      <cdr:x>0.18082</cdr:x>
+      <cdr:y>0.89668</cdr:y>
     </cdr:from>
     <cdr:to>
-      <cdr:x>1</cdr:x>
-      <cdr:y>0.07787</cdr:y>
+      <cdr:x>0.87557</cdr:x>
+      <cdr:y>1</cdr:y>
     </cdr:to>
     <cdr:sp macro="" textlink="">
       <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="TextBox 4">
+        <cdr:cNvPr id="6" name="TextBox 5">
           <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1DAED3F8-7F8C-954D-1BCE-0E2A5D43FD84}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28163045-26FA-3BD5-9896-F7AE61ED62AE}"/>
             </a:ext>
           </a:extLst>
         </cdr:cNvPr>
@@ -17104,147 +17337,26 @@
       </cdr:nvSpPr>
       <cdr:spPr>
         <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="846189" y="0"/>
-          <a:ext cx="6502350" cy="361959"/>
+          <a:off x="1328740" y="4629151"/>
+          <a:ext cx="5105400" cy="533400"/>
         </a:xfrm>
         <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:noFill xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" w="9525" cmpd="sng">
-          <a:noFill/>
-        </a:ln>
       </cdr:spPr>
-      <cdr:style>
-        <a:lnRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </cdr:style>
       <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0" anchor="t"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
         <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
           <a:r>
-            <a:rPr lang="en-GB" sz="1700" b="1">
-              <a:solidFill>
-                <a:srgbClr val="515151"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Survey</a:t>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Some</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-GB" sz="1700" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="515151"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Results</a:t>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> follow up is neccesary to find out why such a large group of clients is nuetral on item C </a:t>
           </a:r>
-          <a:endParaRPr lang="en-GB" sz="1700" b="1">
-            <a:solidFill>
-              <a:srgbClr val="285E91"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </cdr:txBody>
     </cdr:sp>
@@ -18584,8 +18696,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F21ECAC-55FE-4F78-B585-C6E2752C0454}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F11" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="S26" sqref="S26"/>
+    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -18647,7 +18759,7 @@
         <v>101</v>
       </c>
       <c r="L4" s="32" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:12" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -18857,21 +18969,9 @@
       <c r="F13" s="35"/>
       <c r="G13" s="35"/>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I14" s="32" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I15" s="32" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="I16" s="32" t="s">
-        <v>111</v>
-      </c>
-    </row>
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="18" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="19" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/practice_data.xlsx
+++ b/practice_data.xlsx
@@ -1,23 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Personal data\Code and Research\visualization and storytelling from data\Effective_data_visualizations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED574661-2A4D-46EB-9233-1C995EA0DE2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BC662B-19FF-45D9-8868-63415F950D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C33E300-94BD-3244-BE01-92DFA5BF64CB}"/>
   </bookViews>
   <sheets>
-    <sheet name="chart5" sheetId="7" r:id="rId1"/>
-    <sheet name="chart_4" sheetId="6" r:id="rId2"/>
-    <sheet name="chart_3" sheetId="4" r:id="rId3"/>
-    <sheet name="chart_2" sheetId="3" r:id="rId4"/>
-    <sheet name="Chart_1" sheetId="1" r:id="rId5"/>
+    <sheet name="chart6" sheetId="8" r:id="rId1"/>
+    <sheet name="chart5" sheetId="7" r:id="rId2"/>
+    <sheet name="chart_4" sheetId="6" r:id="rId3"/>
+    <sheet name="chart_3" sheetId="4" r:id="rId4"/>
+    <sheet name="chart_2" sheetId="3" r:id="rId5"/>
+    <sheet name="Chart_1" sheetId="1" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="124">
   <si>
     <t>Completion Rate</t>
   </si>
@@ -394,12 +395,34 @@
   <si>
     <t>Gap</t>
   </si>
+  <si>
+    <t>YEAR</t>
+  </si>
+  <si>
+    <t>Our company</t>
+  </si>
+  <si>
+    <t>S&amp;P 500</t>
+  </si>
+  <si>
+    <t>Competitive index</t>
+  </si>
+  <si>
+    <t>No unnecesary cluter</t>
+  </si>
+  <si>
+    <t>Very clear chart title</t>
+  </si>
+  <si>
+    <t>Very well labeled axes</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
     <numFmt numFmtId="164" formatCode="0.0%"/>
   </numFmts>
   <fonts count="10" x14ac:knownFonts="1">
@@ -467,7 +490,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -534,8 +557,14 @@
         <bgColor rgb="FFD8D8D8"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -620,6 +649,21 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -627,7 +671,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -698,6 +742,29 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="3" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="3" applyBorder="1"/>
     <xf numFmtId="9" fontId="9" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="12" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -755,6 +822,9 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF8DCB50"/>
+      <color rgb="FFA6DDD1"/>
+      <color rgb="FF3E8136"/>
       <color rgb="FF956FCC"/>
       <color rgb="FF285E91"/>
     </mruColors>
@@ -790,6 +860,1057 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cummulative shareholder return over 5 years</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>For</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t> an initial investment of $100 in 2017</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.196325393127509E-2"/>
+          <c:y val="1.2845215157353885E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10956323784660402"/>
+          <c:y val="9.8512616201859235E-2"/>
+          <c:w val="0.73070910616598272"/>
+          <c:h val="0.7685335118770209"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart6!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Our company</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="8DCB50"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C4137D61-7B98-4BC2-B723-521895416AB9}" type="SERIESNAME">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:srgbClr val="8DCB50"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[SERIES NAME]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="8DCB50"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{5AC2D1CF-074A-40FC-8DB5-32BA990AB949}" type="VALUE">
+                      <a:rPr lang="en-US" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="8DCB50"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" b="1" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="8DCB50"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-208B-4410-A4A5-343EA8A9CF33}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>chart6!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart6!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-208B-4410-A4A5-343EA8A9CF33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart6!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13530288737413551"/>
+                  <c:y val="-4.2408427270290636E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="8DCB50"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>Closest to matching the performance of the S&amp;P 500 ,</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="8DCB50"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="8DCB50"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>2019 </a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="900" b="1">
+                      <a:solidFill>
+                        <a:srgbClr val="8DCB50"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-F078-455E-AA5F-AEFBA6A70296}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3EC3E42B-575B-4947-99E2-4505ABA90DFE}" type="SERIESNAME">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1">
+                            <a:lumMod val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[SERIES NAME]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1">
+                            <a:lumMod val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{BB53505A-4328-4B98-A2DF-77D2C3E35A59}" type="VALUE">
+                      <a:rPr lang="en-US" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1">
+                            <a:lumMod val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" b="1" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1">
+                          <a:lumMod val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-208B-4410-A4A5-343EA8A9CF33}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>chart6!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart6!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-208B-4410-A4A5-343EA8A9CF33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart6!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Competitive index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A8B042A4-8302-46F2-A141-B7C77B22BC5B}" type="SERIESNAME">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1">
+                            <a:lumMod val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[SERIES NAME]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1">
+                            <a:lumMod val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{9EE4063F-A8EF-4BB8-BB9C-BCCAD053271F}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1">
+                            <a:lumMod val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1">
+                          <a:lumMod val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-208B-4410-A4A5-343EA8A9CF33}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>chart6!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart6!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-208B-4410-A4A5-343EA8A9CF33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="643478896"/>
+        <c:axId val="643488616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="643478896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>As of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Dec 31</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.1000197566759696"/>
+              <c:y val="0.90962738489442607"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643488616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="643488616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Reteur per $100</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643478896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -804,14 +1925,14 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:rPr lang="en-US"/>
-              <a:t>2022 Sales</a:t>
+              <a:rPr lang="en-US" sz="1500" b="0" i="0" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>Patient length of hospital stay after surgery (in Days) - 2019 </a:t>
             </a:r>
-            <a:r>
-              <a:rPr lang="en-US" baseline="0"/>
-              <a:t> Agent Performace Comparison </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="en-US" sz="1500" b="0">
+              <a:effectLst/>
+            </a:endParaRPr>
           </a:p>
         </c:rich>
       </c:tx>
@@ -819,8 +1940,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.4836551062979793E-2"/>
-          <c:y val="7.3260059173361185E-3"/>
+          <c:x val="2.1320249120483997E-2"/>
+          <c:y val="2.821054305739646E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -859,10 +1980,10 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="9.6418278527194395E-2"/>
-          <c:y val="0.15650790641402393"/>
-          <c:w val="0.69533567640004179"/>
-          <c:h val="0.76076898834395934"/>
+          <c:x val="0.11557076618729778"/>
+          <c:y val="0.12155923003432137"/>
+          <c:w val="0.84708408849477868"/>
+          <c:h val="0.76539157233349842"/>
         </c:manualLayout>
       </c:layout>
       <c:barChart>
@@ -874,520 +1995,25 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>chart5!$C$3</c:f>
+              <c:f>chart_2!$B$36</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Target</c:v>
+                  <c:v>Q4</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:schemeClr val="bg2">
-                <a:lumMod val="90000"/>
-              </a:schemeClr>
+              <a:schemeClr val="accent1"/>
             </a:solidFill>
             <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.50363191858374323"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{EC47CA4B-3325-4040-A355-BD71F973F0AD}" type="CELLRANGE">
-                      <a:rPr lang="en-US">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-3AAA-43A7-97CF-16845502912C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="5.2488812139759929E-2"/>
-                  <c:y val="-8.9539037960389822E-17"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{5D12DF20-F206-4CCC-9859-852AFDC86999}" type="CELLRANGE">
-                      <a:rPr lang="en-US" b="1">
-                        <a:solidFill>
-                          <a:sysClr val="windowText" lastClr="000000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-3AAA-43A7-97CF-16845502912C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.31423188082575432"/>
-                  <c:y val="2.4420019724453726E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{27197E7D-4DF0-433D-8EDE-36600EF8D8B7}" type="CELLRANGE">
-                      <a:rPr lang="en-US">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-3AAA-43A7-97CF-16845502912C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{73B19CE7-650C-4A98-8EF8-DCA5867EBB7C}" type="CELLRANGE">
-                      <a:rPr lang="en-US" b="1"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-3AAA-43A7-97CF-16845502912C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="4"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{D578D5B6-DACF-4CFD-AF36-C4071EF285CE}" type="CELLRANGE">
-                      <a:rPr lang="en-US" b="1"/>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-3AAA-43A7-97CF-16845502912C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-7.9634106784608971E-2"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A88B8E52-6D4B-4D03-A8F7-16228966CBF8}" type="CELLRANGE">
-                      <a:rPr lang="en-US">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000C-3AAA-43A7-97CF-16845502912C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="6"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.12267956991142463"/>
-                  <c:y val="7.3260059173361185E-3"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{696A0592-37D3-4674-903D-2EE86A2596E1}" type="CELLRANGE">
-                      <a:rPr lang="en-US">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000B-3AAA-43A7-97CF-16845502912C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="7"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.12913638938044703"/>
-                  <c:y val="0"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{3C25B443-854E-41E6-B62A-18CFEA743F32}" type="CELLRANGE">
-                      <a:rPr lang="en-US">
-                        <a:solidFill>
-                          <a:srgbClr val="FF0000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[CELLRANGE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="0"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="1"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-3AAA-43A7-97CF-16845502912C}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showDataLabelsRange val="1"/>
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>chart5!$A$4:$B$11</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Q4</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Q3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Q2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Q1</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Q4</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Q3</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Q2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Q1</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Agent 1</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Agent 2</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>chart5!$C$4:$C$11</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
-                <c:pt idx="0">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>4000</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>10000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>7000</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>5500</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>4000</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-              <c15:datalabelsRange>
-                <c15:f>chart5!$E$4:$E$11</c15:f>
-                <c15:dlblRangeCache>
-                  <c:ptCount val="8"/>
-                  <c:pt idx="0">
-                    <c:v>40%</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>129%</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>36%</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>125%</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>110%</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>96%</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>87%</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>88%</c:v>
-                  </c:pt>
-                </c15:dlblRangeCache>
-              </c15:datalabelsRange>
-            </c:ext>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-3AAA-43A7-97CF-16845502912C}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>chart5!$D$3</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Achieved</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
@@ -1397,158 +2023,28 @@
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
-              <a:gradFill flip="none" rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                      <a:tint val="66000"/>
-                      <a:satMod val="160000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                      <a:tint val="44500"/>
-                      <a:satMod val="160000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                      <a:tint val="23500"/>
-                      <a:satMod val="160000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="2700000" scaled="1"/>
-                <a:tileRect/>
-              </a:gradFill>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-3AAA-43A7-97CF-16845502912C}"/>
+                <c16:uniqueId val="{00000017-7982-4E3E-906F-493D826FB08D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-3AAA-43A7-97CF-16845502912C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill flip="none" rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                      <a:tint val="66000"/>
-                      <a:satMod val="160000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                      <a:tint val="44500"/>
-                      <a:satMod val="160000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:schemeClr val="accent6">
-                      <a:lumMod val="60000"/>
-                      <a:lumOff val="40000"/>
-                      <a:tint val="23500"/>
-                      <a:satMod val="160000"/>
-                    </a:schemeClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="2700000" scaled="1"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-3AAA-43A7-97CF-16845502912C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent6">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-3AAA-43A7-97CF-16845502912C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="956FCC"/>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-3AAA-43A7-97CF-16845502912C}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="5"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1577,18 +2073,297 @@
                 <a:tileRect/>
               </a:gradFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-3AAA-43A7-97CF-16845502912C}"/>
+                <c16:uniqueId val="{0000000B-7982-4E3E-906F-493D826FB08D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="6"/>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000013-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000C-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0F54B65D-555C-4BED-829C-CBB4EAD7893C}" type="VALUE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-7982-4E3E-906F-493D826FB08D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_2!$C$35:$G$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>60 and above</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49 to 59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37 to 48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25 to 36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24 and  below</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_2!$C$36:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>5.6206336311941517E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.14353371242891955</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.6961819658813974E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.50253452477660443</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25395613322502031</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7982-4E3E-906F-493D826FB08D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_2!$B$37</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000016-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1617,18 +2392,297 @@
                 <a:tileRect/>
               </a:gradFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000003-3AAA-43A7-97CF-16845502912C}"/>
+                <c16:uniqueId val="{0000000A-7982-4E3E-906F-493D826FB08D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
           <c:dPt>
-            <c:idx val="7"/>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000012-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000D-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{794F4671-073E-41C5-93C0-D4C768BB259A}" type="VALUE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-7982-4E3E-906F-493D826FB08D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_2!$C$35:$G$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>60 and above</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49 to 59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37 to 48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25 to 36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24 and  below</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_2!$C$37:$G$37</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7.0216126350789679E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17412302576891112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.8237738985868649E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.52207813798836245</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.19456359102244389</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7982-4E3E-906F-493D826FB08D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_2!$B$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000015-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
             <c:invertIfNegative val="0"/>
             <c:bubble3D val="0"/>
             <c:spPr>
@@ -1657,94 +2711,558 @@
                 <a:tileRect/>
               </a:gradFill>
               <a:ln>
-                <a:noFill/>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
               </a:ln>
               <a:effectLst/>
             </c:spPr>
             <c:extLst>
               <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000002-3AAA-43A7-97CF-16845502912C}"/>
+                <c16:uniqueId val="{00000009-7982-4E3E-906F-493D826FB08D}"/>
               </c:ext>
             </c:extLst>
           </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000011-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000E-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BC914661-A5FC-4AC9-8832-C7B0EC521D3F}" type="VALUE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-7982-4E3E-906F-493D826FB08D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:cat>
-            <c:multiLvlStrRef>
-              <c:f>chart5!$A$4:$B$11</c:f>
-              <c:multiLvlStrCache>
-                <c:ptCount val="8"/>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Q4</c:v>
-                  </c:pt>
-                  <c:pt idx="1">
-                    <c:v>Q3</c:v>
-                  </c:pt>
-                  <c:pt idx="2">
-                    <c:v>Q2</c:v>
-                  </c:pt>
-                  <c:pt idx="3">
-                    <c:v>Q1</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Q4</c:v>
-                  </c:pt>
-                  <c:pt idx="5">
-                    <c:v>Q3</c:v>
-                  </c:pt>
-                  <c:pt idx="6">
-                    <c:v>Q2</c:v>
-                  </c:pt>
-                  <c:pt idx="7">
-                    <c:v>Q1</c:v>
-                  </c:pt>
-                </c:lvl>
-                <c:lvl>
-                  <c:pt idx="0">
-                    <c:v>Agent 1</c:v>
-                  </c:pt>
-                  <c:pt idx="4">
-                    <c:v>Agent 2</c:v>
-                  </c:pt>
-                </c:lvl>
-              </c:multiLvlStrCache>
-            </c:multiLvlStrRef>
+            <c:strRef>
+              <c:f>chart_2!$C$35:$G$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>60 and above</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49 to 59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37 to 48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25 to 36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24 and  below</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>chart5!$D$4:$D$11</c:f>
+              <c:f>chart_2!$C$38:$G$38</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="8"/>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>4000</c:v>
+                  <c:v>5.8901303538175055E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>9000</c:v>
+                  <c:v>0.16737430167597764</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2000</c:v>
+                  <c:v>4.0744878957169446E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>5000</c:v>
+                  <c:v>0.58331471135940405</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>11000</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>6700</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>4800</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>3500</c:v>
+                  <c:v>0.14290502793296092</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-3AAA-43A7-97CF-16845502912C}"/>
+              <c16:uniqueId val="{00000002-7982-4E3E-906F-493D826FB08D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_2!$B$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000014-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="66000"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="44500"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="23500"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="2700000" scaled="1"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000010-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:solidFill>
+                  <a:schemeClr val="bg1">
+                    <a:lumMod val="50000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{0000000F-7982-4E3E-906F-493D826FB08D}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DCA2CCBB-94F4-4628-B277-87D562768760}" type="VALUE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-7982-4E3E-906F-493D826FB08D}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_2!$C$35:$G$35</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>60 and above</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>49 to 59</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>37 to 48</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25 to 36</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>24 and  below</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_2!$C$39:$G$39</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>6.9422382671480182E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.18855595667870043</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.3104693140794213E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53850180505415157</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12243682310469313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-7982-4E3E-906F-493D826FB08D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1756,13 +3274,12 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:gapWidth val="64"/>
-        <c:overlap val="100"/>
-        <c:axId val="445193112"/>
-        <c:axId val="445193472"/>
+        <c:gapWidth val="102"/>
+        <c:axId val="680653896"/>
+        <c:axId val="680656848"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="445193112"/>
+        <c:axId val="680653896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1805,7 +3322,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="445193472"/>
+        <c:crossAx val="680656848"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1813,17 +3330,17 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="445193472"/>
+        <c:axId val="680656848"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="1"/>
         <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="445193112"/>
+        <c:crossAx val="680653896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1837,13 +3354,6 @@
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
     <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:spPr>
@@ -1880,7 +3390,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2693,7 +4203,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3496,6 +5006,1117 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>2022 Sales</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Agents Performace Comparison </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.4836551062979793E-2"/>
+          <c:y val="7.3260059173361185E-3"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="9.6418278527194395E-2"/>
+          <c:y val="0.15650790641402393"/>
+          <c:w val="0.69533567640004179"/>
+          <c:h val="0.76076898834395934"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart5!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Target</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg2">
+                <a:lumMod val="90000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.50363191858374323"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EC47CA4B-3325-4040-A355-BD71F973F0AD}" type="CELLRANGE">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-3AAA-43A7-97CF-16845502912C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="5.2488812139759929E-2"/>
+                  <c:y val="-8.9539037960389822E-17"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{5D12DF20-F206-4CCC-9859-852AFDC86999}" type="CELLRANGE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-3AAA-43A7-97CF-16845502912C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.31423188082575432"/>
+                  <c:y val="2.4420019724453726E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{27197E7D-4DF0-433D-8EDE-36600EF8D8B7}" type="CELLRANGE">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-3AAA-43A7-97CF-16845502912C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{9E0B1204-D2F1-4AF7-A022-A08A1A8F35B5}" type="CELLRANGE">
+                      <a:rPr lang="en-US" b="1"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-3AAA-43A7-97CF-16845502912C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{DB1940D5-8595-4C7A-89C6-C871A3AC462F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-3AAA-43A7-97CF-16845502912C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-7.9634106784608971E-2"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A88B8E52-6D4B-4D03-A8F7-16228966CBF8}" type="CELLRANGE">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000C-3AAA-43A7-97CF-16845502912C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="6"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12267956991142463"/>
+                  <c:y val="7.3260059173361185E-3"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{696A0592-37D3-4674-903D-2EE86A2596E1}" type="CELLRANGE">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000B-3AAA-43A7-97CF-16845502912C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="7"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.12913638938044703"/>
+                  <c:y val="0"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3C25B443-854E-41E6-B62A-18CFEA743F32}" type="CELLRANGE">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:srgbClr val="FF0000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-3AAA-43A7-97CF-16845502912C}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1100" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>chart5!$A$4:$B$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Q4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Q3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Q2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Q1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Q4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Q3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Q2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Q1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Agent 1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Agent 2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart5!$C$4:$C$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>7000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>5500</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>chart5!$E$4:$E$11</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="8"/>
+                  <c:pt idx="0">
+                    <c:v>40%</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>129%</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>36%</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>125%</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>110%</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>96%</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>87%</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>88%</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3AAA-43A7-97CF-16845502912C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart5!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Achieved</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                      <a:tint val="66000"/>
+                      <a:satMod val="160000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                      <a:tint val="44500"/>
+                      <a:satMod val="160000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                      <a:tint val="23500"/>
+                      <a:satMod val="160000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="2700000" scaled="1"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-3AAA-43A7-97CF-16845502912C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-3AAA-43A7-97CF-16845502912C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                      <a:tint val="66000"/>
+                      <a:satMod val="160000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                      <a:tint val="44500"/>
+                      <a:satMod val="160000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:schemeClr val="accent6">
+                      <a:lumMod val="60000"/>
+                      <a:lumOff val="40000"/>
+                      <a:tint val="23500"/>
+                      <a:satMod val="160000"/>
+                    </a:schemeClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="2700000" scaled="1"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-3AAA-43A7-97CF-16845502912C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-3AAA-43A7-97CF-16845502912C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3AAA-43A7-97CF-16845502912C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="66000"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="44500"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="23500"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="2700000" scaled="1"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-3AAA-43A7-97CF-16845502912C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="66000"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="44500"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="23500"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="2700000" scaled="1"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3AAA-43A7-97CF-16845502912C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="7"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:gradFill flip="none" rotWithShape="1">
+                <a:gsLst>
+                  <a:gs pos="0">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="66000"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="50000">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="44500"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                  <a:gs pos="100000">
+                    <a:srgbClr val="956FCC">
+                      <a:tint val="23500"/>
+                      <a:satMod val="160000"/>
+                    </a:srgbClr>
+                  </a:gs>
+                </a:gsLst>
+                <a:lin ang="2700000" scaled="1"/>
+                <a:tileRect/>
+              </a:gradFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-3AAA-43A7-97CF-16845502912C}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>chart5!$A$4:$B$11</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="8"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Q4</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>Q3</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>Q2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>Q1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Q4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>Q3</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>Q2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>Q1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>Agent 1</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>Agent 2</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart5!$D$4:$D$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="8"/>
+                <c:pt idx="0">
+                  <c:v>4000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>11000</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>6700</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4800</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>3500</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3AAA-43A7-97CF-16845502912C}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="64"/>
+        <c:overlap val="100"/>
+        <c:axId val="445193112"/>
+        <c:axId val="445193472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="445193112"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="445193472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="445193472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="445193112"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
     <c:autoTitleDeleted val="1"/>
     <c:plotArea>
       <c:layout>
@@ -4060,7 +6681,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4916,7 +7537,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5483,7 +8104,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5870,7 +8491,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6916,7 +9537,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7638,7 +10259,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9104,1505 +11725,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1500" b="0" i="0" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Patient length of hospital stay after surgery (in Days) - 2019 </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1500" b="0">
-              <a:effectLst/>
-            </a:endParaRPr>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.1320249120483997E-2"/>
-          <c:y val="2.821054305739646E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="0.11557076618729778"/>
-          <c:y val="0.12155923003432137"/>
-          <c:w val="0.84708408849477868"/>
-          <c:h val="0.76539157233349842"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>chart_2!$B$36</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Q4</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent1"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000017-7982-4E3E-906F-493D826FB08D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill flip="none" rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:srgbClr val="956FCC">
-                      <a:tint val="66000"/>
-                      <a:satMod val="160000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:srgbClr val="956FCC">
-                      <a:tint val="44500"/>
-                      <a:satMod val="160000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:srgbClr val="956FCC">
-                      <a:tint val="23500"/>
-                      <a:satMod val="160000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="2700000" scaled="1"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000B-7982-4E3E-906F-493D826FB08D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000013-7982-4E3E-906F-493D826FB08D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="956FCC"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-7982-4E3E-906F-493D826FB08D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000C-7982-4E3E-906F-493D826FB08D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{0F54B65D-555C-4BED-829C-CBB4EAD7893C}" type="VALUE">
-                      <a:rPr lang="en-US" b="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000007-7982-4E3E-906F-493D826FB08D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>chart_2!$C$35:$G$35</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>60 and above</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>49 to 59</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37 to 48</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25 to 36</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24 and  below</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>chart_2!$C$36:$G$36</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.6206336311941517E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.14353371242891955</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.6961819658813974E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.50253452477660443</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.25395613322502031</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-7982-4E3E-906F-493D826FB08D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>chart_2!$B$37</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Q3</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent2"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000016-7982-4E3E-906F-493D826FB08D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill flip="none" rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:srgbClr val="956FCC">
-                      <a:tint val="66000"/>
-                      <a:satMod val="160000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:srgbClr val="956FCC">
-                      <a:tint val="44500"/>
-                      <a:satMod val="160000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:srgbClr val="956FCC">
-                      <a:tint val="23500"/>
-                      <a:satMod val="160000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="2700000" scaled="1"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000A-7982-4E3E-906F-493D826FB08D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000012-7982-4E3E-906F-493D826FB08D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="956FCC"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000006-7982-4E3E-906F-493D826FB08D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000D-7982-4E3E-906F-493D826FB08D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{794F4671-073E-41C5-93C0-D4C768BB259A}" type="VALUE">
-                      <a:rPr lang="en-US" b="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-7982-4E3E-906F-493D826FB08D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>chart_2!$C$35:$G$35</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>60 and above</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>49 to 59</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37 to 48</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25 to 36</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24 and  below</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>chart_2!$C$37:$G$37</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>7.0216126350789679E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17412302576891112</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.8237738985868649E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.52207813798836245</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.19456359102244389</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-7982-4E3E-906F-493D826FB08D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>chart_2!$B$38</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Q2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000015-7982-4E3E-906F-493D826FB08D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill flip="none" rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:srgbClr val="956FCC">
-                      <a:tint val="66000"/>
-                      <a:satMod val="160000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:srgbClr val="956FCC">
-                      <a:tint val="44500"/>
-                      <a:satMod val="160000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:srgbClr val="956FCC">
-                      <a:tint val="23500"/>
-                      <a:satMod val="160000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="2700000" scaled="1"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000009-7982-4E3E-906F-493D826FB08D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000011-7982-4E3E-906F-493D826FB08D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="956FCC"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000005-7982-4E3E-906F-493D826FB08D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000E-7982-4E3E-906F-493D826FB08D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{BC914661-A5FC-4AC9-8832-C7B0EC521D3F}" type="VALUE">
-                      <a:rPr lang="en-US" b="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-7982-4E3E-906F-493D826FB08D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>chart_2!$C$35:$G$35</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>60 and above</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>49 to 59</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37 to 48</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25 to 36</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24 and  below</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>chart_2!$C$38:$G$38</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>5.8901303538175055E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.16737430167597764</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0744878957169446E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.58331471135940405</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.14290502793296092</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-7982-4E3E-906F-493D826FB08D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>chart_2!$B$39</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Q1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="50000"/>
-                </a:schemeClr>
-              </a:solidFill>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="0"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000014-7982-4E3E-906F-493D826FB08D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="1"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:gradFill flip="none" rotWithShape="1">
-                <a:gsLst>
-                  <a:gs pos="0">
-                    <a:srgbClr val="956FCC">
-                      <a:tint val="66000"/>
-                      <a:satMod val="160000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="50000">
-                    <a:srgbClr val="956FCC">
-                      <a:tint val="44500"/>
-                      <a:satMod val="160000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                  <a:gs pos="100000">
-                    <a:srgbClr val="956FCC">
-                      <a:tint val="23500"/>
-                      <a:satMod val="160000"/>
-                    </a:srgbClr>
-                  </a:gs>
-                </a:gsLst>
-                <a:lin ang="2700000" scaled="1"/>
-                <a:tileRect/>
-              </a:gradFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000008-7982-4E3E-906F-493D826FB08D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="2"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000010-7982-4E3E-906F-493D826FB08D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:srgbClr val="956FCC"/>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000004-7982-4E3E-906F-493D826FB08D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dPt>
-            <c:idx val="4"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="65000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:solidFill>
-                  <a:schemeClr val="bg1">
-                    <a:lumMod val="50000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{0000000F-7982-4E3E-906F-493D826FB08D}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{DCA2CCBB-94F4-4628-B277-87D562768760}" type="VALUE">
-                      <a:rPr lang="en-US" b="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-7982-4E3E-906F-493D826FB08D}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>chart_2!$C$35:$G$35</c:f>
-              <c:strCache>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>60 and above</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>49 to 59</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>37 to 48</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>25 to 36</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>24 and  below</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>chart_2!$C$39:$G$39</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="5"/>
-                <c:pt idx="0">
-                  <c:v>6.9422382671480182E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.18855595667870043</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6.3104693140794213E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.53850180505415157</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.12243682310469313</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-7982-4E3E-906F-493D826FB08D}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="102"/>
-        <c:axId val="680653896"/>
-        <c:axId val="680656848"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="680653896"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="680656848"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="680656848"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="680653896"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -10684,6 +11806,46 @@
 </file>
 
 <file path=xl/charts/colors11.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -11044,7 +12206,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -11152,6 +12314,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -11548,7 +13226,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12051,7 +13729,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -12568,7 +14246,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -13578,7 +15256,7 @@
 </file>
 
 <file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -14083,7 +15761,7 @@
 </file>
 
 <file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -14287,22 +15965,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -14407,8 +16086,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -14540,19 +16219,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -14586,7 +16266,7 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -14694,11 +16374,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -14709,11 +16384,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -14745,9 +16415,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -15102,7 +16769,7 @@
 </file>
 
 <file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -15210,6 +16877,522 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -15606,7 +17789,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16111,532 +18294,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>223837</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>114299</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357184</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AC05F9-740B-756E-7E56-9A69F5E0E4B8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EE5EA41-0E63-0349-27CC-4D12D7AF5667}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -16654,10 +18332,464 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE430D6-7888-6F8D-A6B2-624FFB5A4EB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15173326" y="1"/>
+          <a:ext cx="6610349" cy="4210050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.10326</cdr:x>
+      <cdr:y>0.09828</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.44265</cdr:x>
+      <cdr:y>0.16462</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76BA023F-E6C5-946D-885C-A51DD99ED735}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="683562" y="410022"/>
+          <a:ext cx="2246745" cy="276764"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Diseases</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:solidFill>
+                <a:srgbClr val="92D050"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Wounds</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300"/>
+            <a:t>Other</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.51428</cdr:x>
+      <cdr:y>0.1467</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.55026</cdr:x>
+      <cdr:y>0.56033</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801FCFCE-A184-BA6C-811A-D242CE091E10}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="3033564">
+          <a:off x="2721807" y="1251404"/>
+          <a:ext cx="1603506" cy="238124"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> decrease since Feb_55</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.34193</cdr:x>
+      <cdr:y>0.16369</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.38605</cdr:x>
+      <cdr:y>0.60611</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BDCE26-7ECB-E23D-737D-82270B204AC6}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="17594407">
+          <a:off x="1552020" y="1346080"/>
+          <a:ext cx="1715125" cy="292102"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>spike  from</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> Oct_54</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1200" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100"/>
+          </a:br>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>939800</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B20CAF84-759A-4F92-B928-D8A15D7321D7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>320385</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>70137</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>848591</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E68EA73-7D0E-5746-853A-4A64BD2CCF16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>545523</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>52818</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>355023</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>173181</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB01530-5950-2785-00EE-A774D17CA840}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>822614</xdr:colOff>
+      <xdr:row>53</xdr:row>
+      <xdr:rowOff>129886</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>646511</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>75414</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="9" name="Picture 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC97487-74F6-1D6C-15E4-71CEF35364B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16538864" y="10278341"/>
+          <a:ext cx="6248942" cy="4517528"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -16757,7 +18889,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -17067,7 +19199,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -17144,7 +19276,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -17366,6 +19498,171 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.29094</cdr:x>
+      <cdr:y>0.72543</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.92036</cdr:x>
+      <cdr:y>0.90223</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C00BCE9A-4345-E495-C018-0B785529B073}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="2157415" y="4028392"/>
+          <a:ext cx="4667251" cy="981759"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:srgbClr val="8DCB50"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Our  company </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>experiences the highest decreases</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> during </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>market decrease,</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> suggesting</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" i="0" baseline="0">
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>more sensitivity to market fluctuations.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1">
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>223837</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>114299</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9AC05F9-740B-756E-7E56-9A69F5E0E4B8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -17650,7 +19947,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19061,7 +21358,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -19489,7 +21786,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -19777,7 +22074,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -19898,7 +22195,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -19971,416 +22268,6 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.10326</cdr:x>
-      <cdr:y>0.09828</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.44265</cdr:x>
-      <cdr:y>0.16462</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76BA023F-E6C5-946D-885C-A51DD99ED735}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="683562" y="410022"/>
-          <a:ext cx="2246745" cy="276764"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="1">
-              <a:solidFill>
-                <a:srgbClr val="956FCC"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Diseases</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="1">
-              <a:solidFill>
-                <a:srgbClr val="92D050"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Wounds</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="0" baseline="0">
-              <a:solidFill>
-                <a:sysClr val="windowText" lastClr="000000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1300"/>
-            <a:t>Other</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.51428</cdr:x>
-      <cdr:y>0.1467</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.55026</cdr:x>
-      <cdr:y>0.56033</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="3" name="TextBox 2">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{801FCFCE-A184-BA6C-811A-D242CE091E10}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="3033564">
-          <a:off x="2721807" y="1251404"/>
-          <a:ext cx="1603506" cy="238124"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="956FCC"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> decrease since Feb_55</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100"/>
-          </a:br>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.34193</cdr:x>
-      <cdr:y>0.16369</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.38605</cdr:x>
-      <cdr:y>0.60611</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="4" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B4BDCE26-7ECB-E23D-737D-82270B204AC6}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" rot="17594407">
-          <a:off x="1552020" y="1346080"/>
-          <a:ext cx="1715125" cy="292102"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:lvl1pPr marL="0" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl1pPr>
-          <a:lvl2pPr marL="457200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl2pPr>
-          <a:lvl3pPr marL="914400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl3pPr>
-          <a:lvl4pPr marL="1371600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl4pPr>
-          <a:lvl5pPr marL="1828800" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl5pPr>
-          <a:lvl6pPr marL="2286000" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl6pPr>
-          <a:lvl7pPr marL="2743200" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl7pPr>
-          <a:lvl8pPr marL="3200400" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl8pPr>
-          <a:lvl9pPr marL="3657600" indent="0">
-            <a:defRPr sz="1100">
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:lvl9pPr>
-        </a:lstStyle>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1">
-              <a:solidFill>
-                <a:srgbClr val="956FCC"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>spike  from</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1200" b="1" baseline="0">
-              <a:solidFill>
-                <a:srgbClr val="956FCC"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t> Oct_54</a:t>
-          </a:r>
-          <a:br>
-            <a:rPr lang="en-US" sz="1200" baseline="0"/>
-          </a:br>
-          <a:br>
-            <a:rPr lang="en-US" sz="1100"/>
-          </a:br>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>939800</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B20CAF84-759A-4F92-B928-D8A15D7321D7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>320385</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>70137</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>848591</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E68EA73-7D0E-5746-853A-4A64BD2CCF16}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>545523</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>52818</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>355023</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>173181</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="5" name="Chart 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FFB01530-5950-2785-00EE-A774D17CA840}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>822614</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>129886</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>646511</xdr:colOff>
-      <xdr:row>77</xdr:row>
-      <xdr:rowOff>75414</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Picture 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6BC97487-74F6-1D6C-15E4-71CEF35364B9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="16538864" y="10278341"/>
-          <a:ext cx="6248942" cy="4517528"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -20696,11 +22583,225 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537E5B23-9CD3-4A37-9CA5-5AB39C79254D}">
+  <dimension ref="A1:X25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K31" sqref="K31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="31.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>118</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>120</v>
+      </c>
+      <c r="E1" s="40"/>
+      <c r="F1" s="40"/>
+      <c r="G1" s="40"/>
+    </row>
+    <row r="2" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="44">
+        <v>2017</v>
+      </c>
+      <c r="B2" s="42">
+        <v>100</v>
+      </c>
+      <c r="C2" s="42">
+        <v>100</v>
+      </c>
+      <c r="D2" s="42">
+        <v>100</v>
+      </c>
+      <c r="E2" s="40"/>
+      <c r="F2" s="40"/>
+      <c r="G2" s="40"/>
+    </row>
+    <row r="3" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="44">
+        <v>2018</v>
+      </c>
+      <c r="B3" s="42">
+        <v>86</v>
+      </c>
+      <c r="C3" s="42">
+        <v>96</v>
+      </c>
+      <c r="D3" s="42">
+        <v>83</v>
+      </c>
+      <c r="E3" s="45">
+        <f>(B3-B2)/B2</f>
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="F3" s="43">
+        <f>(C3-C2)/C2</f>
+        <v>-0.04</v>
+      </c>
+      <c r="G3" s="43">
+        <f>(D3-D2)/D2</f>
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="44">
+        <v>2019</v>
+      </c>
+      <c r="B4" s="42">
+        <v>125</v>
+      </c>
+      <c r="C4" s="42">
+        <v>126</v>
+      </c>
+      <c r="D4" s="42">
+        <v>113</v>
+      </c>
+      <c r="E4" s="46">
+        <f t="shared" ref="E4:E7" si="0">(B4-B3)/B3</f>
+        <v>0.45348837209302323</v>
+      </c>
+      <c r="F4" s="43">
+        <f t="shared" ref="F4:F7" si="1">(C4-C3)/C3</f>
+        <v>0.3125</v>
+      </c>
+      <c r="G4" s="43">
+        <f t="shared" ref="G4:G7" si="2">(D4-D3)/D3</f>
+        <v>0.36144578313253012</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="44">
+        <v>2020</v>
+      </c>
+      <c r="B5" s="42">
+        <v>111</v>
+      </c>
+      <c r="C5" s="42">
+        <v>149</v>
+      </c>
+      <c r="D5" s="42">
+        <v>101</v>
+      </c>
+      <c r="E5" s="45">
+        <f t="shared" si="0"/>
+        <v>-0.112</v>
+      </c>
+      <c r="F5" s="43">
+        <f t="shared" si="1"/>
+        <v>0.18253968253968253</v>
+      </c>
+      <c r="G5" s="43">
+        <f t="shared" si="2"/>
+        <v>-0.10619469026548672</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="44">
+        <v>2021</v>
+      </c>
+      <c r="B6" s="42">
+        <v>165</v>
+      </c>
+      <c r="C6" s="42">
+        <v>191</v>
+      </c>
+      <c r="D6" s="42">
+        <v>140</v>
+      </c>
+      <c r="E6" s="46">
+        <f t="shared" si="0"/>
+        <v>0.48648648648648651</v>
+      </c>
+      <c r="F6" s="43">
+        <f t="shared" si="1"/>
+        <v>0.28187919463087246</v>
+      </c>
+      <c r="G6" s="43">
+        <f t="shared" si="2"/>
+        <v>0.38613861386138615</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="44">
+        <v>2022</v>
+      </c>
+      <c r="B7" s="42">
+        <v>126</v>
+      </c>
+      <c r="C7" s="42">
+        <v>157</v>
+      </c>
+      <c r="D7" s="42">
+        <v>110</v>
+      </c>
+      <c r="E7" s="45">
+        <f t="shared" si="0"/>
+        <v>-0.23636363636363636</v>
+      </c>
+      <c r="F7" s="43">
+        <f t="shared" si="1"/>
+        <v>-0.17801047120418848</v>
+      </c>
+      <c r="G7" s="43">
+        <f t="shared" si="2"/>
+        <v>-0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E8" s="47">
+        <f>MEDIAN(E3,E5,E7)</f>
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="F8" s="48">
+        <f>MEDIAN(F3,F7)</f>
+        <v>-0.10900523560209424</v>
+      </c>
+      <c r="G8" s="48">
+        <f>MEDIAN(G3,G5,G7)</f>
+        <v>-0.17</v>
+      </c>
+    </row>
+    <row r="23" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X23" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="24" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X24" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="25" spans="24:24" x14ac:dyDescent="0.25">
+      <c r="X25" t="s">
+        <v>123</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B657748-0008-460B-9540-013CF7D3A4D7}">
   <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R2" sqref="R2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -20862,7 +22963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F21ECAC-55FE-4F78-B585-C6E2752C0454}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
@@ -22136,7 +24237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CC1BA4-E921-4AA4-A584-D3625E98DAE6}">
   <dimension ref="A1:V81"/>
   <sheetViews>
@@ -23845,7 +25946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4826435D-A3F9-49E4-8457-82E47D20EC0E}">
   <dimension ref="A1:J44"/>
   <sheetViews>
@@ -24307,7 +26408,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A1EDB0-6F8A-754C-9714-34743E7EBC7F}">
   <sheetPr>
     <tabColor theme="1"/>
@@ -24379,17 +26480,17 @@
       <c r="D6" s="6">
         <v>2.3E-2</v>
       </c>
-      <c r="F6" s="40" t="s">
+      <c r="F6" s="49" t="s">
         <v>12</v>
       </c>
-      <c r="G6" s="40"/>
-      <c r="H6" s="40"/>
-      <c r="I6" s="40"/>
-      <c r="J6" s="40"/>
-      <c r="K6" s="40"/>
-      <c r="L6" s="40"/>
-      <c r="M6" s="40"/>
-      <c r="N6" s="40"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+      <c r="M6" s="49"/>
+      <c r="N6" s="49"/>
       <c r="Q6" s="1" t="s">
         <v>16</v>
       </c>

--- a/practice_data.xlsx
+++ b/practice_data.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Personal data\Code and Research\visualization and storytelling from data\Effective_data_visualizations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60BC662B-19FF-45D9-8868-63415F950D7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B364D8F-3D43-47A7-8D17-7C6FDC9EC44A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{3C33E300-94BD-3244-BE01-92DFA5BF64CB}"/>
   </bookViews>
   <sheets>
-    <sheet name="chart6" sheetId="8" r:id="rId1"/>
-    <sheet name="chart5" sheetId="7" r:id="rId2"/>
-    <sheet name="chart_4" sheetId="6" r:id="rId3"/>
-    <sheet name="chart_3" sheetId="4" r:id="rId4"/>
-    <sheet name="chart_2" sheetId="3" r:id="rId5"/>
-    <sheet name="Chart_1" sheetId="1" r:id="rId6"/>
+    <sheet name="chart7" sheetId="9" r:id="rId1"/>
+    <sheet name="chart6" sheetId="8" r:id="rId2"/>
+    <sheet name="chart5" sheetId="7" r:id="rId3"/>
+    <sheet name="chart_4" sheetId="6" r:id="rId4"/>
+    <sheet name="chart_3" sheetId="4" r:id="rId5"/>
+    <sheet name="chart_2" sheetId="3" r:id="rId6"/>
+    <sheet name="Chart_1" sheetId="1" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="236" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="142">
   <si>
     <t>Completion Rate</t>
   </si>
@@ -416,6 +417,60 @@
   <si>
     <t>Very well labeled axes</t>
   </si>
+  <si>
+    <t>Product</t>
+  </si>
+  <si>
+    <t>Sales</t>
+  </si>
+  <si>
+    <t>Profit</t>
+  </si>
+  <si>
+    <t>Play Station</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Washing Machine</t>
+  </si>
+  <si>
+    <t>Dish Washer</t>
+  </si>
+  <si>
+    <t>Home Theatre</t>
+  </si>
+  <si>
+    <t>product code</t>
+  </si>
+  <si>
+    <t>PS</t>
+  </si>
+  <si>
+    <t>WM</t>
+  </si>
+  <si>
+    <t>DW</t>
+  </si>
+  <si>
+    <t>HT</t>
+  </si>
+  <si>
+    <t>CP</t>
+  </si>
+  <si>
+    <t>Expenses</t>
+  </si>
+  <si>
+    <t>Store 2</t>
+  </si>
+  <si>
+    <t>Store 1</t>
+  </si>
+  <si>
+    <t>Marketing Expenses</t>
+  </si>
 </sst>
 </file>
 
@@ -671,7 +726,7 @@
     <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -768,6 +823,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -823,9 +881,9 @@
   <colors>
     <mruColors>
       <color rgb="FF8DCB50"/>
+      <color rgb="FF956FCC"/>
       <color rgb="FFA6DDD1"/>
       <color rgb="FF3E8136"/>
-      <color rgb="FF956FCC"/>
       <color rgb="FF285E91"/>
     </mruColors>
   </colors>
@@ -860,7 +918,7 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
-            <a:pPr algn="l">
+            <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
                   <a:schemeClr val="tx1">
@@ -875,20 +933,8 @@
             </a:pPr>
             <a:r>
               <a:rPr lang="en-US"/>
-              <a:t>Cummulative shareholder return over 5 years</a:t>
+              <a:t>Breakdown of marketing expenses,sales and profits by store</a:t>
             </a:r>
-            <a:br>
-              <a:rPr lang="en-US"/>
-            </a:br>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200"/>
-              <a:t>For</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1200" baseline="0"/>
-              <a:t> an initial investment of $100 in 2017</a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" sz="1200"/>
           </a:p>
         </c:rich>
       </c:tx>
@@ -896,8 +942,8 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="7.196325393127509E-2"/>
-          <c:y val="1.2845215157353885E-2"/>
+          <c:x val="9.7452069162993399E-2"/>
+          <c:y val="1.2507817385866166E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -912,7 +958,7 @@
         <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l">
+          <a:pPr>
             <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
               <a:solidFill>
                 <a:schemeClr val="tx1">
@@ -936,96 +982,266 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.10956323784660402"/>
-          <c:y val="9.8512616201859235E-2"/>
-          <c:w val="0.73070910616598272"/>
-          <c:h val="0.7685335118770209"/>
+          <c:x val="0.10359369707345117"/>
+          <c:y val="0.11779862414008757"/>
+          <c:w val="0.86577924234268044"/>
+          <c:h val="0.77112368458633107"/>
         </c:manualLayout>
       </c:layout>
-      <c:lineChart>
-        <c:grouping val="standard"/>
+      <c:bubbleChart>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>chart6!$B$1</c:f>
+              <c:f>chart7!$A$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Our company</c:v>
+                  <c:v>Store 1</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:srgbClr val="8DCB50"/>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:srgbClr val="956FCC"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="0"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{C4137D61-7B98-4BC2-B723-521895416AB9}" type="SERIESNAME">
+                    <a:fld id="{EF53E424-54CB-4011-B325-8A6DFCF8C729}" type="CELLRANGE">
                       <a:rPr lang="en-US" b="1">
                         <a:solidFill>
-                          <a:srgbClr val="8DCB50"/>
+                          <a:schemeClr val="bg1"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:pPr/>
-                      <a:t>[SERIES NAME]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
                       <a:rPr lang="en-US" b="1" baseline="0">
                         <a:solidFill>
-                          <a:srgbClr val="8DCB50"/>
+                          <a:schemeClr val="bg1"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{5AC2D1CF-074A-40FC-8DB5-32BA990AB949}" type="VALUE">
+                    <a:fld id="{C1F08C55-F786-4437-8EE7-0F9F500D0BE2}" type="BUBBLESIZE">
                       <a:rPr lang="en-US" b="1" baseline="0">
                         <a:solidFill>
-                          <a:srgbClr val="8DCB50"/>
+                          <a:schemeClr val="bg1"/>
                         </a:solidFill>
                       </a:rPr>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[BUBBLE SIZE]</a:t>
                     </a:fld>
                     <a:endParaRPr lang="en-US" b="1" baseline="0">
                       <a:solidFill>
-                        <a:srgbClr val="8DCB50"/>
+                        <a:schemeClr val="bg1"/>
                       </a:solidFill>
                     </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
+              <c:showVal val="0"/>
               <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
+              <c:showSerName val="0"/>
               <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
+              <c:showBubbleSize val="1"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
+                  <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000005-208B-4410-A4A5-343EA8A9CF33}"/>
+                  <c16:uniqueId val="{00000004-312E-4779-ADD6-B01D4AF0BB2E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7351175D-C1AA-4B47-9E1E-7EFFE26670A9}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{032F44DA-E634-491C-9C22-22132339FCAB}" type="BUBBLESIZE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[BUBBLE SIZE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-312E-4779-ADD6-B01D4AF0BB2E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{BED0CC79-B8AE-482A-A08E-FD5B95842C7F}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{572EE55C-4AA2-46B8-B891-45DEC004B790}" type="BUBBLESIZE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[BUBBLE SIZE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-312E-4779-ADD6-B01D4AF0BB2E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E4A4BF6A-91AF-4EF6-BA04-98D1E9C8E68E}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{BA2B6B31-3FB1-4D51-8417-21AF44B45FF7}" type="BUBBLESIZE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[BUBBLE SIZE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-312E-4779-ADD6-B01D4AF0BB2E}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{CAE93369-A4EE-472C-BE11-413E3D841A74}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{335FD82E-F0D0-4361-9302-D0E6C20F9F73}" type="BUBBLESIZE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[BUBBLE SIZE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="0"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="1"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000007-312E-4779-ADD6-B01D4AF0BB2E}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1058,14 +1274,17 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
             <c:showVal val="0"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
+            <c:showBubbleSize val="1"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1084,64 +1303,105 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>chart6!$A$2:$A$7</c:f>
+              <c:f>chart7!$C$3:$C$7</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2017</c:v>
+                  <c:v>3500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2018</c:v>
+                  <c:v>4500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2019</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020</c:v>
+                  <c:v>5500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2022</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>chart6!$B$2:$B$7</c:f>
+              <c:f>chart7!$D$3:$D$7</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>15000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>86</c:v>
+                  <c:v>40000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>125</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>111</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>126</c:v>
+                  <c:v>12000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>chart7!$E$3:$E$7</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>7600</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8900</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3400</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1550</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>chart7!$B$3:$B$7</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>PS</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CP</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>WM</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>DW</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>HT</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-208B-4410-A4A5-343EA8A9CF33}"/>
+              <c16:uniqueId val="{00000000-312E-4779-ADD6-B01D4AF0BB2E}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1150,77 +1410,68 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>chart6!$C$1</c:f>
+              <c:f>chart7!$A$9:$E$9</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>S&amp;P 500</c:v>
+                  <c:v>Store 2</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="75000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
+            <a:solidFill>
+              <a:srgbClr val="8DCB50"/>
+            </a:solidFill>
+            <a:ln w="25400">
+              <a:noFill/>
             </a:ln>
             <a:effectLst/>
           </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
+          <c:invertIfNegative val="0"/>
           <c:dLbls>
             <c:dLbl>
-              <c:idx val="2"/>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.13530288737413551"/>
-                  <c:y val="-4.2408427270290636E-2"/>
-                </c:manualLayout>
-              </c:layout>
+              <c:idx val="0"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
+                    <a:fld id="{256894EF-5D08-4105-8E16-58E83419E536}" type="CELLRANGE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                      <a:rPr lang="en-US" b="1" baseline="0">
                         <a:solidFill>
-                          <a:srgbClr val="8DCB50"/>
+                          <a:schemeClr val="bg1"/>
                         </a:solidFill>
-                        <a:effectLst/>
                       </a:rPr>
-                      <a:t>Closest to matching the performance of the S&amp;P 500 ,</a:t>
+                      <a:t>, </a:t>
                     </a:r>
-                    <a:br>
-                      <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                    <a:fld id="{1F00BF6B-EB20-4A37-B927-F23B3C5B46D8}" type="YVALUE">
+                      <a:rPr lang="en-US" b="1" baseline="0">
                         <a:solidFill>
-                          <a:srgbClr val="8DCB50"/>
+                          <a:schemeClr val="bg1"/>
                         </a:solidFill>
-                        <a:effectLst/>
                       </a:rPr>
-                    </a:br>
-                    <a:r>
-                      <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
-                        <a:solidFill>
-                          <a:srgbClr val="8DCB50"/>
-                        </a:solidFill>
-                        <a:effectLst/>
-                      </a:rPr>
-                      <a:t>2019 </a:t>
-                    </a:r>
-                    <a:endParaRPr lang="en-US" sz="900" b="1">
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" b="1" baseline="0">
                       <a:solidFill>
-                        <a:srgbClr val="8DCB50"/>
+                        <a:schemeClr val="bg1"/>
                       </a:solidFill>
                     </a:endParaRPr>
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
@@ -1229,75 +1480,183 @@
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:showDataLabelsRange val="0"/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000000-F078-455E-AA5F-AEFBA6A70296}"/>
+                  <c16:uniqueId val="{00000002-FB01-44EA-A5BA-0A75C0306C33}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
             <c:dLbl>
-              <c:idx val="5"/>
+              <c:idx val="1"/>
               <c:tx>
                 <c:rich>
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{3EC3E42B-575B-4947-99E2-4505ABA90DFE}" type="SERIESNAME">
-                      <a:rPr lang="en-US" b="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="65000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                      </a:rPr>
+                    <a:fld id="{D2630072-D858-4301-B757-83C971A7A044}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
                       <a:pPr/>
-                      <a:t>[SERIES NAME]</a:t>
+                      <a:t>[CELLRANGE]</a:t>
                     </a:fld>
                     <a:r>
-                      <a:rPr lang="en-US" b="1" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="65000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                      </a:rPr>
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:t>, </a:t>
                     </a:r>
-                    <a:fld id="{BB53505A-4328-4B98-A2DF-77D2C3E35A59}" type="VALUE">
-                      <a:rPr lang="en-US" b="1" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="65000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                      </a:rPr>
+                    <a:fld id="{A15349F9-1BA4-46FE-813B-0A7524878CF6}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
                       <a:pPr/>
-                      <a:t>[VALUE]</a:t>
+                      <a:t>[Y VALUE]</a:t>
                     </a:fld>
-                    <a:endParaRPr lang="en-US" b="1" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="bg1">
-                          <a:lumMod val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:endParaRPr>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
                   </a:p>
                 </c:rich>
               </c:tx>
+              <c:dLblPos val="ctr"/>
               <c:showLegendKey val="0"/>
               <c:showVal val="1"/>
               <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
+              <c:showSerName val="0"/>
               <c:showPercent val="0"/>
               <c:showBubbleSize val="0"/>
               <c:extLst>
                 <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
                   <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
                 </c:ext>
                 <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000004-208B-4410-A4A5-343EA8A9CF33}"/>
+                  <c16:uniqueId val="{00000001-FB01-44EA-A5BA-0A75C0306C33}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{09F920C7-C793-4FDC-AAFF-24DC5DDECA97}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{68EA12A9-DDC2-4287-AEA4-8F3E8416DB57}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000003-FB01-44EA-A5BA-0A75C0306C33}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0A61FCAD-40D1-4F6A-A9AE-FA3F4C919ED1}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{ED252EA1-88B3-4280-A17D-6EC9F20EBB07}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-FB01-44EA-A5BA-0A75C0306C33}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="4"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{F4C45408-84F1-4574-8323-588F9553E3ED}" type="CELLRANGE">
+                      <a:rPr lang="en-US"/>
+                      <a:pPr/>
+                      <a:t>[CELLRANGE]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{89328A26-DC1C-4171-9C6A-4B4C77F5D112}" type="YVALUE">
+                      <a:rPr lang="en-US" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[Y VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="ctr"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:xForSave val="1"/>
+                  <c15:showDataLabelsRange val="1"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-FB01-44EA-A5BA-0A75C0306C33}"/>
                 </c:ext>
               </c:extLst>
             </c:dLbl>
@@ -1330,210 +1689,17 @@
                 <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:txPr>
+            <c:dLblPos val="ctr"/>
             <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
+            <c:showVal val="1"/>
             <c:showCatName val="0"/>
             <c:showSerName val="0"/>
             <c:showPercent val="0"/>
             <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
             <c:extLst>
               <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="0"/>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:numRef>
-              <c:f>chart6!$A$2:$A$7</c:f>
-              <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>2017</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2018</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2019</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2020</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2022</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>chart6!$C$2:$C$7</c:f>
-              <c:numCache>
-                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
-                <c:ptCount val="6"/>
-                <c:pt idx="0">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>157</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-208B-4410-A4A5-343EA8A9CF33}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>chart6!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>Competitive index</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="38100" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="5"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{A8B042A4-8302-46F2-A141-B7C77B22BC5B}" type="SERIESNAME">
-                      <a:rPr lang="en-US">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="65000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[SERIES NAME]</a:t>
-                    </a:fld>
-                    <a:r>
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="65000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:t>, </a:t>
-                    </a:r>
-                    <a:fld id="{9EE4063F-A8EF-4BB8-BB9C-BCCAD053271F}" type="VALUE">
-                      <a:rPr lang="en-US" baseline="0">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1">
-                            <a:lumMod val="65000"/>
-                          </a:schemeClr>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="bg1">
-                          <a:lumMod val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                    </a:endParaRPr>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="1"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-208B-4410-A4A5-343EA8A9CF33}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="0"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showDataLabelsRange val="1"/>
                 <c15:showLeaderLines val="1"/>
                 <c15:leaderLines>
                   <c:spPr>
@@ -1552,64 +1718,105 @@
               </c:ext>
             </c:extLst>
           </c:dLbls>
-          <c:cat>
+          <c:xVal>
             <c:numRef>
-              <c:f>chart6!$A$2:$A$7</c:f>
+              <c:f>chart7!$C$11:$C$15</c:f>
               <c:numCache>
-                <c:formatCode>0</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>2017</c:v>
+                  <c:v>1500</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2018</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2019</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2020</c:v>
+                  <c:v>7500</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2021</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2022</c:v>
+                  <c:v>5000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:cat>
-          <c:val>
+          </c:xVal>
+          <c:yVal>
             <c:numRef>
-              <c:f>chart6!$D$2:$D$7</c:f>
+              <c:f>chart7!$D$11:$D$15</c:f>
               <c:numCache>
-                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
-                <c:ptCount val="6"/>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>100</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>83</c:v>
+                  <c:v>20000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>113</c:v>
+                  <c:v>12500</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>101</c:v>
+                  <c:v>25000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>110</c:v>
+                  <c:v>8000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
+          </c:yVal>
+          <c:bubbleSize>
+            <c:numRef>
+              <c:f>chart7!$E$11:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>#,##0</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>9500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7500</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3000</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:bubbleSize>
+          <c:bubble3D val="0"/>
           <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+              <c15:datalabelsRange>
+                <c15:f>chart7!$B$11:$B$15</c15:f>
+                <c15:dlblRangeCache>
+                  <c:ptCount val="5"/>
+                  <c:pt idx="0">
+                    <c:v>PS</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>CP</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>WM</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>DW</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>HT</c:v>
+                  </c:pt>
+                </c15:dlblRangeCache>
+              </c15:datalabelsRange>
+            </c:ext>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-208B-4410-A4A5-343EA8A9CF33}"/>
+              <c16:uniqueId val="{00000000-FB01-44EA-A5BA-0A75C0306C33}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1621,14 +1828,16 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="643478896"/>
-        <c:axId val="643488616"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="643478896"/>
+        <c:bubbleScale val="100"/>
+        <c:showNegBubbles val="0"/>
+        <c:axId val="459789072"/>
+        <c:axId val="628495552"/>
+      </c:bubbleChart>
+      <c:valAx>
+        <c:axId val="459789072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
+          <c:min val="0"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
@@ -1653,24 +1862,11 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
-                  <a:t>As of</a:t>
+                  <a:t>Marketing Expenses</a:t>
                 </a:r>
-                <a:r>
-                  <a:rPr lang="en-US" baseline="0"/>
-                  <a:t> Dec 31</a:t>
-                </a:r>
-                <a:endParaRPr lang="en-US"/>
               </a:p>
             </c:rich>
           </c:tx>
-          <c:layout>
-            <c:manualLayout>
-              <c:xMode val="edge"/>
-              <c:yMode val="edge"/>
-              <c:x val="0.1000197566759696"/>
-              <c:y val="0.90962738489442607"/>
-            </c:manualLayout>
-          </c:layout>
           <c:overlay val="0"/>
           <c:spPr>
             <a:noFill/>
@@ -1700,7 +1896,1560 @@
             </a:p>
           </c:txPr>
         </c:title>
-        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="628495552"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="628495552"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Sales</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="#,##0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="459789072"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:noFill/>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>Patient length of hospital stay after</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" b="1" baseline="0"/>
+              <a:t> surgery (in Days) - 2019 </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="2.2214644631698185E-2"/>
+          <c:y val="1.5605595404664148E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.6509898750958366E-2"/>
+          <c:y val="9.6468588926498872E-2"/>
+          <c:w val="0.8292892058693121"/>
+          <c:h val="0.87492115283161687"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:barChart>
+        <c:barDir val="bar"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_2!$B$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>60 and above</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{E5570533-9ADD-4F8F-B2D4-7851A8FCB7FC}" type="VALUE">
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000017-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{557CD262-A1EE-4ABE-8078-F69CD04D8307}" type="VALUE">
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000015-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EAF8FA5C-A379-4A73-AF3B-D7BC0F96F45A}" type="VALUE">
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000012-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_2!$C$27:$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_2!$C$28:$F$28</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>5.6206336311941517E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.0216126350789679E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.8901303538175055E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9422382671480182E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_2!$B$29</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>49 to 59</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:gradFill flip="none" rotWithShape="1">
+              <a:gsLst>
+                <a:gs pos="0">
+                  <a:srgbClr val="956FCC">
+                    <a:tint val="66000"/>
+                    <a:satMod val="160000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="50000">
+                  <a:srgbClr val="956FCC">
+                    <a:tint val="44500"/>
+                    <a:satMod val="160000"/>
+                  </a:srgbClr>
+                </a:gs>
+                <a:gs pos="100000">
+                  <a:srgbClr val="956FCC">
+                    <a:tint val="23500"/>
+                    <a:satMod val="160000"/>
+                  </a:srgbClr>
+                </a:gs>
+              </a:gsLst>
+              <a:lin ang="2700000" scaled="1"/>
+              <a:tileRect/>
+            </a:gradFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{765238FF-B9BD-4DC1-87ED-937DBEE9569C}" type="VALUE">
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000018-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{7C6FF4B3-F0F9-4933-B232-BCE4BB6922D0}" type="VALUE">
+                      <a:rPr lang="en-US" b="1"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000014-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{451499CE-07AA-4AAD-843C-92A23181DF1C}" type="VALUE">
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000010-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_2!$C$27:$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_2!$C$29:$F$29</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.14353371242891955</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.17412302576891112</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.16737430167597764</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.18855595667870043</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_2!$B$30</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>37 to 48</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{23CB8609-759D-4D60-9305-1A4992804917}" type="VALUE">
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000016-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{89165C84-2FC6-41B2-A861-3A878452EC4E}" type="VALUE">
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000013-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{72971CE0-0048-408C-B9EC-8373B1846383}" type="VALUE">
+                      <a:rPr lang="en-US" b="0"/>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000011-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_2!$C$27:$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_2!$C$30:$F$30</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.6961819658813974E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.8237738985868649E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.0744878957169446E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.3104693140794213E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_2!$B$31</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>25 to 36</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:srgbClr val="956FCC"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B0123420-0550-4AD1-9E4E-D2DB7B00F09A}" type="VALUE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000F-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1E725AF6-1BEF-40CE-9F3C-9C88863161F2}" type="VALUE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000E-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{86E439C3-BD25-4EFA-AB67-3EF4D5E59059}" type="VALUE">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000D-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="3"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{EE58C46A-35E3-43E1-BDFC-CEC483BEADDC}" type="VALUE">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_2!$C$27:$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_2!$C$31:$F$31</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.50253452477660443</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.52207813798836245</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.58331471135940405</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.53850180505415157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart_2!$B$32</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>24 and  below</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="65000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{1FE080EE-DB5C-4065-A7FB-DA26BB88F37B}" type="VALUE">
+                      <a:rPr lang="en-US" b="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{0000000A-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{390740E9-A8CA-41B9-8918-1469693BDDA8}" type="VALUE">
+                      <a:rPr lang="en-US" b="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000009-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{B0DC2EFC-FB12-42FB-8AFB-130E38708704}" type="VALUE">
+                      <a:rPr lang="en-US" b="0">
+                        <a:solidFill>
+                          <a:sysClr val="windowText" lastClr="000000"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US"/>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:dLblPos val="inEnd"/>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000008-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:sysClr val="windowText" lastClr="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:dLblPos val="inEnd"/>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>chart_2!$C$27:$F$27</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>Q4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Q3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Q2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Q1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart_2!$C$32:$F$32</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.25395613322502031</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.19456359102244389</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.14290502793296092</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12243682310469313</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-EBA4-4DC0-9DC6-F3C3027473B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="182"/>
+        <c:axId val="664574376"/>
+        <c:axId val="664571096"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="664574376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1737,7 +3486,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="643488616"/>
+        <c:crossAx val="664571096"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1745,105 +3494,19 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="643488616"/>
+        <c:axId val="664571096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>Reteur per $100</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)" sourceLinked="1"/>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="643478896"/>
+        <c:crossAx val="664574376"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
+        <c:crossBetween val="between"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -1891,7 +3554,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3390,7 +5053,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4203,7 +5866,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5012,6 +6675,1057 @@
           <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
           <a:lstStyle/>
           <a:p>
+            <a:pPr algn="l">
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Cummulative shareholder return over 5 years</a:t>
+            </a:r>
+            <a:br>
+              <a:rPr lang="en-US"/>
+            </a:br>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200"/>
+              <a:t>For</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1200" baseline="0"/>
+              <a:t> an initial investment of $100 in 2017</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" sz="1200"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="7.196325393127509E-2"/>
+          <c:y val="1.2845215157353885E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l">
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.10956323784660402"/>
+          <c:y val="9.8512616201859235E-2"/>
+          <c:w val="0.73070910616598272"/>
+          <c:h val="0.7685335118770209"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart6!$B$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Our company</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:srgbClr val="8DCB50"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{C4137D61-7B98-4BC2-B723-521895416AB9}" type="SERIESNAME">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:srgbClr val="8DCB50"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[SERIES NAME]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="8DCB50"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{5AC2D1CF-074A-40FC-8DB5-32BA990AB949}" type="VALUE">
+                      <a:rPr lang="en-US" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="8DCB50"/>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" b="1" baseline="0">
+                      <a:solidFill>
+                        <a:srgbClr val="8DCB50"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000005-208B-4410-A4A5-343EA8A9CF33}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>chart6!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart6!$B$2:$B$7</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>125</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>111</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>165</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>126</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-208B-4410-A4A5-343EA8A9CF33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart6!$C$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>S&amp;P 500</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-0.13530288737413551"/>
+                  <c:y val="-4.2408427270290636E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="8DCB50"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>Closest to matching the performance of the S&amp;P 500 ,</a:t>
+                    </a:r>
+                    <a:br>
+                      <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="8DCB50"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                      </a:rPr>
+                    </a:br>
+                    <a:r>
+                      <a:rPr lang="en-US" sz="900" b="1" i="0" u="none" strike="noStrike" baseline="0">
+                        <a:solidFill>
+                          <a:srgbClr val="8DCB50"/>
+                        </a:solidFill>
+                        <a:effectLst/>
+                      </a:rPr>
+                      <a:t>2019 </a:t>
+                    </a:r>
+                    <a:endParaRPr lang="en-US" sz="900" b="1">
+                      <a:solidFill>
+                        <a:srgbClr val="8DCB50"/>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000000-F078-455E-AA5F-AEFBA6A70296}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3EC3E42B-575B-4947-99E2-4505ABA90DFE}" type="SERIESNAME">
+                      <a:rPr lang="en-US" b="1">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1">
+                            <a:lumMod val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[SERIES NAME]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1">
+                            <a:lumMod val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{BB53505A-4328-4B98-A2DF-77D2C3E35A59}" type="VALUE">
+                      <a:rPr lang="en-US" b="1" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1">
+                            <a:lumMod val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" b="1" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1">
+                          <a:lumMod val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000004-208B-4410-A4A5-343EA8A9CF33}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="0"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>chart6!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart6!$C$2:$C$7</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>149</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>191</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>157</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-208B-4410-A4A5-343EA8A9CF33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>chart6!$D$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Competitive index</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="38100" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="5"/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{A8B042A4-8302-46F2-A141-B7C77B22BC5B}" type="SERIESNAME">
+                      <a:rPr lang="en-US">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1">
+                            <a:lumMod val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[SERIES NAME]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1">
+                            <a:lumMod val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:t>, </a:t>
+                    </a:r>
+                    <a:fld id="{9EE4063F-A8EF-4BB8-BB9C-BCCAD053271F}" type="VALUE">
+                      <a:rPr lang="en-US" baseline="0">
+                        <a:solidFill>
+                          <a:schemeClr val="bg1">
+                            <a:lumMod val="65000"/>
+                          </a:schemeClr>
+                        </a:solidFill>
+                      </a:rPr>
+                      <a:pPr/>
+                      <a:t>[VALUE]</a:t>
+                    </a:fld>
+                    <a:endParaRPr lang="en-US" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="bg1">
+                          <a:lumMod val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                    </a:endParaRPr>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="0"/>
+              <c:showSerName val="1"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                  <c16:uniqueId val="{00000006-208B-4410-A4A5-343EA8A9CF33}"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>chart6!$A$2:$A$7</c:f>
+              <c:numCache>
+                <c:formatCode>0</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>2017</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2018</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2019</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2020</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2021</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2022</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>chart6!$D$2:$D$7</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0_);[Red]\("$"#,##0\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>113</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>101</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>110</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-208B-4410-A4A5-343EA8A9CF33}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="643478896"/>
+        <c:axId val="643488616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="643478896"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>As of</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> Dec 31</a:t>
+                </a:r>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout>
+            <c:manualLayout>
+              <c:xMode val="edge"/>
+              <c:yMode val="edge"/>
+              <c:x val="0.1000197566759696"/>
+              <c:y val="0.90962738489442607"/>
+            </c:manualLayout>
+          </c:layout>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643488616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="643488616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Reteur per $100</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:solidFill>
+              <a:schemeClr val="bg1">
+                <a:lumMod val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="643478896"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
             <a:pPr>
               <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
                 <a:solidFill>
@@ -5283,7 +7997,7 @@
                   <a:bodyPr/>
                   <a:lstStyle/>
                   <a:p>
-                    <a:fld id="{DB1940D5-8595-4C7A-89C6-C871A3AC462F}" type="CELLRANGE">
+                    <a:fld id="{BAD0BD8B-CAD3-4C70-B8CB-C280198796F3}" type="CELLRANGE">
                       <a:rPr lang="en-US"/>
                       <a:pPr/>
                       <a:t>[CELLRANGE]</a:t>
@@ -6103,7 +8817,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -6681,7 +9395,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7537,7 +10251,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8104,7 +10818,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8491,7 +11205,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9537,7 +12251,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10259,1472 +12973,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" b="1"/>
-              <a:t>Patient length of hospital stay after</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" b="1" baseline="0"/>
-              <a:t> surgery (in Days) - 2019 </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-US" b="1"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:layout>
-        <c:manualLayout>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="2.2214644631698185E-2"/>
-          <c:y val="1.5605595404664148E-2"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout>
-        <c:manualLayout>
-          <c:layoutTarget val="inner"/>
-          <c:xMode val="edge"/>
-          <c:yMode val="edge"/>
-          <c:x val="4.6509898750958366E-2"/>
-          <c:y val="9.6468588926498872E-2"/>
-          <c:w val="0.8292892058693121"/>
-          <c:h val="0.87492115283161687"/>
-        </c:manualLayout>
-      </c:layout>
-      <c:barChart>
-        <c:barDir val="bar"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>chart_2!$B$28</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>60 and above</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{E5570533-9ADD-4F8F-B2D4-7851A8FCB7FC}" type="VALUE">
-                      <a:rPr lang="en-US" b="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000017-EBA4-4DC0-9DC6-F3C3027473B1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{557CD262-A1EE-4ABE-8078-F69CD04D8307}" type="VALUE">
-                      <a:rPr lang="en-US" b="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000015-EBA4-4DC0-9DC6-F3C3027473B1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{EAF8FA5C-A379-4A73-AF3B-D7BC0F96F45A}" type="VALUE">
-                      <a:rPr lang="en-US" b="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000012-EBA4-4DC0-9DC6-F3C3027473B1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>chart_2!$C$27:$F$27</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Q4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Q3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Q2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Q1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>chart_2!$C$28:$F$28</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>5.6206336311941517E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>7.0216126350789679E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>5.8901303538175055E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.9422382671480182E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EBA4-4DC0-9DC6-F3C3027473B1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>chart_2!$B$29</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>49 to 59</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:gradFill flip="none" rotWithShape="1">
-              <a:gsLst>
-                <a:gs pos="0">
-                  <a:srgbClr val="956FCC">
-                    <a:tint val="66000"/>
-                    <a:satMod val="160000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="50000">
-                  <a:srgbClr val="956FCC">
-                    <a:tint val="44500"/>
-                    <a:satMod val="160000"/>
-                  </a:srgbClr>
-                </a:gs>
-                <a:gs pos="100000">
-                  <a:srgbClr val="956FCC">
-                    <a:tint val="23500"/>
-                    <a:satMod val="160000"/>
-                  </a:srgbClr>
-                </a:gs>
-              </a:gsLst>
-              <a:lin ang="2700000" scaled="1"/>
-              <a:tileRect/>
-            </a:gradFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{765238FF-B9BD-4DC1-87ED-937DBEE9569C}" type="VALUE">
-                      <a:rPr lang="en-US" b="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000018-EBA4-4DC0-9DC6-F3C3027473B1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{7C6FF4B3-F0F9-4933-B232-BCE4BB6922D0}" type="VALUE">
-                      <a:rPr lang="en-US" b="1"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000014-EBA4-4DC0-9DC6-F3C3027473B1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{451499CE-07AA-4AAD-843C-92A23181DF1C}" type="VALUE">
-                      <a:rPr lang="en-US" b="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000010-EBA4-4DC0-9DC6-F3C3027473B1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>chart_2!$C$27:$F$27</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Q4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Q3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Q2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Q1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>chart_2!$C$29:$F$29</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.14353371242891955</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.17412302576891112</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.16737430167597764</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.18855595667870043</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EBA4-4DC0-9DC6-F3C3027473B1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>chart_2!$B$30</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>37 to 48</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dPt>
-            <c:idx val="3"/>
-            <c:invertIfNegative val="0"/>
-            <c:bubble3D val="0"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="bg1">
-                  <a:lumMod val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:extLst>
-              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                <c16:uniqueId val="{00000007-EBA4-4DC0-9DC6-F3C3027473B1}"/>
-              </c:ext>
-            </c:extLst>
-          </c:dPt>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{23CB8609-759D-4D60-9305-1A4992804917}" type="VALUE">
-                      <a:rPr lang="en-US" b="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000016-EBA4-4DC0-9DC6-F3C3027473B1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{89165C84-2FC6-41B2-A861-3A878452EC4E}" type="VALUE">
-                      <a:rPr lang="en-US" b="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000013-EBA4-4DC0-9DC6-F3C3027473B1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{72971CE0-0048-408C-B9EC-8373B1846383}" type="VALUE">
-                      <a:rPr lang="en-US" b="0"/>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000011-EBA4-4DC0-9DC6-F3C3027473B1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="75000"/>
-                        <a:lumOff val="25000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>chart_2!$C$27:$F$27</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Q4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Q3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Q2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Q1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>chart_2!$C$30:$F$30</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>2.6961819658813974E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.8237738985868649E-2</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>4.0744878957169446E-2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>6.3104693140794213E-2</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EBA4-4DC0-9DC6-F3C3027473B1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>chart_2!$B$31</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>25 to 36</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:srgbClr val="956FCC"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B0123420-0550-4AD1-9E4E-D2DB7B00F09A}" type="VALUE">
-                      <a:rPr lang="en-US" b="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000F-EBA4-4DC0-9DC6-F3C3027473B1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{1E725AF6-1BEF-40CE-9F3C-9C88863161F2}" type="VALUE">
-                      <a:rPr lang="en-US" b="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000E-EBA4-4DC0-9DC6-F3C3027473B1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{86E439C3-BD25-4EFA-AB67-3EF4D5E59059}" type="VALUE">
-                      <a:rPr lang="en-US" b="1">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000D-EBA4-4DC0-9DC6-F3C3027473B1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="3"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{EE58C46A-35E3-43E1-BDFC-CEC483BEADDC}" type="VALUE">
-                      <a:rPr lang="en-US">
-                        <a:solidFill>
-                          <a:schemeClr val="bg1"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000006-EBA4-4DC0-9DC6-F3C3027473B1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>chart_2!$C$27:$F$27</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Q4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Q3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Q2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Q1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>chart_2!$C$31:$F$31</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.50253452477660443</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.52207813798836245</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.58331471135940405</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.53850180505415157</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EBA4-4DC0-9DC6-F3C3027473B1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="4"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>chart_2!$B$32</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>24 and  below</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="bg1">
-                <a:lumMod val="65000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:dLbls>
-            <c:dLbl>
-              <c:idx val="0"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{1FE080EE-DB5C-4065-A7FB-DA26BB88F37B}" type="VALUE">
-                      <a:rPr lang="en-US" b="0">
-                        <a:solidFill>
-                          <a:sysClr val="windowText" lastClr="000000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{0000000A-EBA4-4DC0-9DC6-F3C3027473B1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="1"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{390740E9-A8CA-41B9-8918-1469693BDDA8}" type="VALUE">
-                      <a:rPr lang="en-US" b="0">
-                        <a:solidFill>
-                          <a:sysClr val="windowText" lastClr="000000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000009-EBA4-4DC0-9DC6-F3C3027473B1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:dLbl>
-              <c:idx val="2"/>
-              <c:tx>
-                <c:rich>
-                  <a:bodyPr/>
-                  <a:lstStyle/>
-                  <a:p>
-                    <a:fld id="{B0DC2EFC-FB12-42FB-8AFB-130E38708704}" type="VALUE">
-                      <a:rPr lang="en-US" b="0">
-                        <a:solidFill>
-                          <a:sysClr val="windowText" lastClr="000000"/>
-                        </a:solidFill>
-                      </a:rPr>
-                      <a:pPr/>
-                      <a:t>[VALUE]</a:t>
-                    </a:fld>
-                    <a:endParaRPr lang="en-US"/>
-                  </a:p>
-                </c:rich>
-              </c:tx>
-              <c:dLblPos val="inEnd"/>
-              <c:showLegendKey val="0"/>
-              <c:showVal val="1"/>
-              <c:showCatName val="0"/>
-              <c:showSerName val="0"/>
-              <c:showPercent val="0"/>
-              <c:showBubbleSize val="0"/>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                  <c15:dlblFieldTable/>
-                  <c15:showDataLabelsRange val="0"/>
-                </c:ext>
-                <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                  <c16:uniqueId val="{00000008-EBA4-4DC0-9DC6-F3C3027473B1}"/>
-                </c:ext>
-              </c:extLst>
-            </c:dLbl>
-            <c:spPr>
-              <a:noFill/>
-              <a:ln>
-                <a:noFill/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:txPr>
-              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
-                <a:spAutoFit/>
-              </a:bodyPr>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:sysClr val="windowText" lastClr="000000"/>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:endParaRPr lang="en-US"/>
-              </a:p>
-            </c:txPr>
-            <c:dLblPos val="inEnd"/>
-            <c:showLegendKey val="0"/>
-            <c:showVal val="1"/>
-            <c:showCatName val="0"/>
-            <c:showSerName val="0"/>
-            <c:showPercent val="0"/>
-            <c:showBubbleSize val="0"/>
-            <c:showLeaderLines val="0"/>
-            <c:extLst>
-              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
-                <c15:showLeaderLines val="1"/>
-                <c15:leaderLines>
-                  <c:spPr>
-                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="35000"/>
-                          <a:lumOff val="65000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:round/>
-                    </a:ln>
-                    <a:effectLst/>
-                  </c:spPr>
-                </c15:leaderLines>
-              </c:ext>
-            </c:extLst>
-          </c:dLbls>
-          <c:cat>
-            <c:strRef>
-              <c:f>chart_2!$C$27:$F$27</c:f>
-              <c:strCache>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>Q4</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>Q3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>Q2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>Q1</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>chart_2!$C$32:$F$32</c:f>
-              <c:numCache>
-                <c:formatCode>0%</c:formatCode>
-                <c:ptCount val="4"/>
-                <c:pt idx="0">
-                  <c:v>0.25395613322502031</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.19456359102244389</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.14290502793296092</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.12243682310469313</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000004-EBA4-4DC0-9DC6-F3C3027473B1}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="182"/>
-        <c:axId val="664574376"/>
-        <c:axId val="664571096"/>
-      </c:barChart>
-      <c:catAx>
-        <c:axId val="664574376"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="664571096"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="664571096"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="664574376"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-  <c:userShapes r:id="rId3"/>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -11846,6 +13094,46 @@
 </file>
 
 <file path=xl/charts/colors12.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors13.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -12206,7 +13494,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="269">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -12233,8 +13521,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -12316,7 +13604,9 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
     </cs:spPr>
   </cs:dataPoint>
@@ -12331,7 +13621,9 @@
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="phClr">
+          <a:alpha val="75000"/>
+        </a:schemeClr>
       </a:solidFill>
     </cs:spPr>
   </cs:dataPoint3D>
@@ -12345,9 +13637,11 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
-          <a:schemeClr val="phClr"/>
+          <a:schemeClr val="phClr">
+            <a:alpha val="50000"/>
+          </a:schemeClr>
         </a:solidFill>
         <a:round/>
       </a:ln>
@@ -12380,10 +13674,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -12423,22 +13717,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -12543,8 +13838,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -12676,19 +13971,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -12702,6 +13998,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -13227,7 +14534,7 @@
 </file>
 
 <file path=xl/charts/style11.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -13431,22 +14738,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -13551,8 +14859,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -13684,19 +14992,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -13730,7 +15039,7 @@
 </file>
 
 <file path=xl/charts/style12.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -13838,11 +15147,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -13853,11 +15157,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -13889,9 +15188,6 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -14245,8 +15541,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<file path=xl/charts/style13.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -14354,6 +15650,1038 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -14750,7 +17078,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15255,7 +17583,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -15760,7 +18088,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16265,7 +18593,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16768,7 +19096,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17284,7 +19612,7 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -17789,532 +20117,27 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>357184</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>233361</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>228599</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>409574</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
+        <xdr:cNvPr id="4" name="Chart 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EE5EA41-0E63-0349-27CC-4D12D7AF5667}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB90B86A-C5BC-DE92-7337-8BD11D004023}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18332,25 +20155,30 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>228601</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>1</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>438150</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>152401</xdr:rowOff>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>247651</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>38101</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
+        <xdr:cNvPr id="2" name="Picture 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE430D6-7888-6F8D-A6B2-624FFB5A4EB4}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A107EBC-2D3B-00A8-A750-0A1628E40B0C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -18359,15 +20187,15 @@
         </xdr:cNvPicPr>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
         <a:stretch>
           <a:fillRect/>
         </a:stretch>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="15173326" y="1"/>
-          <a:ext cx="6610349" cy="4210050"/>
+          <a:off x="7772401" y="133351"/>
+          <a:ext cx="9620250" cy="5905500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -18376,10 +20204,157 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>90486</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>104774</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>361949</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65456D99-FC7E-9E39-974E-86D74AFA483D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>1114426</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>190501</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E95663-E074-E697-099B-206F31A7600C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.2225</cdr:x>
+      <cdr:y>0.39075</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.69396</cdr:x>
+      <cdr:y>0.46787</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D934790F-597B-F0DB-8649-D6EDE8123D8B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="1281113" y="1447802"/>
+          <a:ext cx="2714625" cy="285750"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Diseases</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t> accounted</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> for  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1300" b="1">
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>80% </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>of the</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> deaths. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -18630,7 +20605,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -18789,7 +20764,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -18889,7 +20864,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -19199,7 +21174,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing16.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19276,7 +21251,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing17.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -19501,6 +21476,274 @@
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
+      <cdr:x>0.09439</cdr:x>
+      <cdr:y>0.04878</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.31353</cdr:x>
+      <cdr:y>0.09568</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6AA09FDD-5E47-01F7-8954-EEFB1225F9A6}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="681039" y="247650"/>
+          <a:ext cx="1581150" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="956FCC"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Store 1    </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1200" b="1">
+              <a:solidFill>
+                <a:srgbClr val="8DCB50"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Store 2</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.52079</cdr:x>
+      <cdr:y>0.11185</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98284</cdr:x>
+      <cdr:y>0.32554</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{896692D8-F588-5490-E6C5-FFE277076C25}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3757614" y="638175"/>
+          <a:ext cx="3333750" cy="1219200"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>- Our</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> stores are incuring </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>very high marketing </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>expenses on washing machines with lower  profits</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+          </a:br>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>- </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>Store 2 </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:sysClr val="windowText" lastClr="000000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>incurs</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> significantly higer marketing expenses </a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>on computers</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="0" baseline="0"/>
+            <a:t>, it should </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t>conduct a benchmarking</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+          </a:br>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0"/>
+            <a:t> session in Store 1.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100" b="1"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>357184</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>228599</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0EE5EA41-0E63-0349-27CC-4D12D7AF5667}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>152401</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5BE430D6-7888-6F8D-A6B2-624FFB5A4EB4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="15173326" y="1"/>
+          <a:ext cx="6610349" cy="4210050"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
       <cdr:x>0.29094</cdr:x>
       <cdr:y>0.72543</cdr:y>
     </cdr:from>
@@ -19621,7 +21864,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19662,7 +21905,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -19947,7 +22190,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -21358,7 +23601,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -21786,7 +24029,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -22065,202 +24308,6 @@
           <a:r>
             <a:rPr lang="en-US" sz="1100" baseline="0"/>
             <a:t> follow up is neccesary to find out why such a large group of clients is nuetral on item C </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" sz="1100"/>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>228601</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>133351</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>247651</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>38101</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Picture 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3A107EBC-2D3B-00A8-A750-0A1628E40B0C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7772401" y="133351"/>
-          <a:ext cx="9620250" cy="5905500"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>90486</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>361949</xdr:colOff>
-      <xdr:row>54</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65456D99-FC7E-9E39-974E-86D74AFA483D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>1114426</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>19051</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>75</xdr:row>
-      <xdr:rowOff>190501</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="4" name="Chart 3">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E5E95663-E074-E697-099B-206F31A7600C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.2225</cdr:x>
-      <cdr:y>0.39075</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.69396</cdr:x>
-      <cdr:y>0.46787</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D934790F-597B-F0DB-8649-D6EDE8123D8B}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="1281113" y="1447802"/>
-          <a:ext cx="2714625" cy="285750"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="1">
-              <a:solidFill>
-                <a:srgbClr val="956FCC"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Diseases</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t> accounted</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> for  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1300" b="1">
-              <a:solidFill>
-                <a:srgbClr val="956FCC"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>80% </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>of the</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" sz="1100" baseline="0"/>
-            <a:t> deaths. </a:t>
           </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
@@ -22583,10 +24630,351 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{428D633E-A685-48D8-B74F-93810314A2E1}">
+  <dimension ref="A1:M15"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.625" customWidth="1"/>
+    <col min="3" max="3" width="17.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="50" t="s">
+        <v>140</v>
+      </c>
+      <c r="B1" s="50"/>
+      <c r="C1" s="50"/>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C2" t="s">
+        <v>141</v>
+      </c>
+      <c r="D2" t="s">
+        <v>125</v>
+      </c>
+      <c r="E2" t="s">
+        <v>126</v>
+      </c>
+      <c r="I2" t="s">
+        <v>124</v>
+      </c>
+      <c r="J2" t="s">
+        <v>132</v>
+      </c>
+      <c r="K2" t="s">
+        <v>138</v>
+      </c>
+      <c r="L2" t="s">
+        <v>125</v>
+      </c>
+      <c r="M2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>127</v>
+      </c>
+      <c r="B3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C3" s="29">
+        <v>3500</v>
+      </c>
+      <c r="D3" s="29">
+        <v>15000</v>
+      </c>
+      <c r="E3" s="29">
+        <v>7600</v>
+      </c>
+      <c r="I3" t="s">
+        <v>127</v>
+      </c>
+      <c r="J3" t="s">
+        <v>133</v>
+      </c>
+      <c r="K3">
+        <v>1000</v>
+      </c>
+      <c r="L3">
+        <v>3000</v>
+      </c>
+      <c r="M3">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B4" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="29">
+        <v>4500</v>
+      </c>
+      <c r="D4" s="29">
+        <v>40000</v>
+      </c>
+      <c r="E4" s="29">
+        <v>8900</v>
+      </c>
+      <c r="I4" t="s">
+        <v>128</v>
+      </c>
+      <c r="J4" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4">
+        <v>800</v>
+      </c>
+      <c r="L4">
+        <v>1500</v>
+      </c>
+      <c r="M4">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5" s="29">
+        <v>10000</v>
+      </c>
+      <c r="D5" s="29">
+        <v>22000</v>
+      </c>
+      <c r="E5" s="29">
+        <v>3400</v>
+      </c>
+      <c r="I5" t="s">
+        <v>129</v>
+      </c>
+      <c r="J5" t="s">
+        <v>134</v>
+      </c>
+      <c r="K5">
+        <v>1200</v>
+      </c>
+      <c r="L5">
+        <v>2000</v>
+      </c>
+      <c r="M5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>130</v>
+      </c>
+      <c r="B6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C6" s="29">
+        <v>5500</v>
+      </c>
+      <c r="D6" s="29">
+        <v>18000</v>
+      </c>
+      <c r="E6" s="29">
+        <v>2300</v>
+      </c>
+      <c r="I6" t="s">
+        <v>130</v>
+      </c>
+      <c r="J6" t="s">
+        <v>135</v>
+      </c>
+      <c r="K6">
+        <v>500</v>
+      </c>
+      <c r="L6">
+        <v>1000</v>
+      </c>
+      <c r="M6">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>131</v>
+      </c>
+      <c r="B7" t="s">
+        <v>136</v>
+      </c>
+      <c r="C7" s="29">
+        <v>6000</v>
+      </c>
+      <c r="D7" s="29">
+        <v>12000</v>
+      </c>
+      <c r="E7" s="29">
+        <v>1550</v>
+      </c>
+      <c r="I7" t="s">
+        <v>131</v>
+      </c>
+      <c r="J7" t="s">
+        <v>136</v>
+      </c>
+      <c r="K7">
+        <v>1500</v>
+      </c>
+      <c r="L7">
+        <v>4000</v>
+      </c>
+      <c r="M7">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" s="50" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>124</v>
+      </c>
+      <c r="B10" t="s">
+        <v>132</v>
+      </c>
+      <c r="C10" t="s">
+        <v>141</v>
+      </c>
+      <c r="D10" t="s">
+        <v>125</v>
+      </c>
+      <c r="E10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" t="s">
+        <v>133</v>
+      </c>
+      <c r="C11" s="29">
+        <v>1500</v>
+      </c>
+      <c r="D11" s="29">
+        <v>30000</v>
+      </c>
+      <c r="E11" s="29">
+        <v>9500</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>128</v>
+      </c>
+      <c r="B12" t="s">
+        <v>137</v>
+      </c>
+      <c r="C12" s="29">
+        <v>12500</v>
+      </c>
+      <c r="D12" s="29">
+        <v>20000</v>
+      </c>
+      <c r="E12" s="29">
+        <v>7500</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>129</v>
+      </c>
+      <c r="B13" t="s">
+        <v>134</v>
+      </c>
+      <c r="C13" s="29">
+        <v>8000</v>
+      </c>
+      <c r="D13" s="29">
+        <v>12500</v>
+      </c>
+      <c r="E13" s="29">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>130</v>
+      </c>
+      <c r="B14" t="s">
+        <v>135</v>
+      </c>
+      <c r="C14" s="29">
+        <v>7500</v>
+      </c>
+      <c r="D14" s="29">
+        <v>25000</v>
+      </c>
+      <c r="E14" s="29">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B15" t="s">
+        <v>136</v>
+      </c>
+      <c r="C15" s="29">
+        <v>5000</v>
+      </c>
+      <c r="D15" s="29">
+        <v>8000</v>
+      </c>
+      <c r="E15" s="29">
+        <v>2000</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A9:E9"/>
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{537E5B23-9CD3-4A37-9CA5-5AB39C79254D}">
   <dimension ref="A1:X25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
@@ -22796,7 +25184,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B657748-0008-460B-9540-013CF7D3A4D7}">
   <dimension ref="A1:E11"/>
   <sheetViews>
@@ -22963,7 +25351,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F21ECAC-55FE-4F78-B585-C6E2752C0454}">
   <dimension ref="A1:L1000"/>
   <sheetViews>
@@ -24237,7 +26625,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19CC1BA4-E921-4AA4-A584-D3625E98DAE6}">
   <dimension ref="A1:V81"/>
   <sheetViews>
@@ -25946,7 +28334,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4826435D-A3F9-49E4-8457-82E47D20EC0E}">
   <dimension ref="A1:J44"/>
   <sheetViews>
@@ -26408,7 +28796,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99A1EDB0-6F8A-754C-9714-34743E7EBC7F}">
   <sheetPr>
     <tabColor theme="1"/>
